--- a/CustomLocalization-RU/Localization/RogueTech/RU/Base Unique 3061/LocalizationDef.xlsx
+++ b/CustomLocalization-RU/Localization/RogueTech/RU/Base Unique 3061/LocalizationDef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="1117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="1091">
   <si>
     <t>chassisdef_adder_ADR-CN.Description.Details</t>
   </si>
@@ -25,7 +25,7 @@
   </si>
   <si>
     <t xml:space="preserve">Reportedly piloted by Dirk Radick, the Adder Hero 'Mech, the Cinder mounts an ER Large Laser in each arm supported by a Machine Gun in each side torso complimented by the head mounted Flamer. Carrying two and half tons of machine gun rounds, five extra Double Heat Sinks maintain a high rate of laser fire. 
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Узкий / Низкий профиль&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.06&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -56,7 +56,7 @@
   </si>
   <si>
     <t xml:space="preserve">The personal 'Mech of Marcus GioAvanti, commander of Avanti's Angels, all of Archangel's weapons are upgraded to Clantech equivalents with the right arm medium pulse laser moved to the left arm and an extra Clan medium pulse laser added to the center torso. The resulted weight and space saved allowed the mounting of an extra double heat sink as well as additional armor.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Hyper-Extending Actuactors&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Выдвижные руки&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.15&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -84,7 +84,7 @@
   </si>
   <si>
     <t xml:space="preserve">The very first Argus Design spec's that was rejected by the AFFCS, while being a lot more flexible then contemporary Chassis did its more advanced and rare components make it unfit for larger Engagements.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Artemis V&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Артемида V&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.12&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -112,7 +112,7 @@
   </si>
   <si>
     <t xml:space="preserve">Michael Ubodo's Arrow is armed with a trio of Machine Guns in each arm supplied with two tons of ammo, supported by a Medium Laser in side torso and a Large Pulse Laser mounted in the center torso. Mounting a 235 standard engine, its varation of the Arrow is clad in Ferro-Fibrous armor on an Endo Steel frame, carrying eleven Double Heat Sinks and just two Jump Jets.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Extended Torso Twist&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Доворот торса&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.08&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -140,7 +140,7 @@
   </si>
   <si>
     <t xml:space="preserve">Piloted by Wolf's Dragoons Captain Danielle Rondema, this modified Atlas carried three medium lasers in each arm, trading away the SRM rack to do so. The additional heat was dissipated by two additional heat sinks that replaced the rear-firing medium lasers. 
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Intimidating&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Наводящий ужас&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.23&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -168,7 +168,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Atlas D is the king of the battlefield, capable of bringing a dizzying array of weapons to bear on targets at any range. It is also noteworthy for normally mounting the maximum amount of armor possible. Few opponents can survive even brief contact with this monster.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Communications&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Улучш. средства связи&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.18&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -190,7 +190,7 @@
   </si>
   <si>
     <t xml:space="preserve">Another typical Export from the Gamesworld is this Atlas redesigned around an Articulated and 3 Directional Jump Jets, to close in and punch the Enemy with its Hydraulic Fists.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Battle Fists&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Бойцовский клуб&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.18&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -212,7 +212,7 @@
   </si>
   <si>
     <t xml:space="preserve">The personal 'Mech of Galedon Military District commander Warlord Grieg Samsonov during the DCMS's Third Succession War invasion of Galtor III in 3025, only the massive autocannon remains, with the rest of the standard weaponry replaced with a PPC mounted in each arm. The remaining weight and space is devoted to six additional heat sinks. 
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Intimidating&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Наводящий ужас&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.23&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -234,13 +234,13 @@
     <t>chassisdef_awesome_AWS-9Ma_adam.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">A customized variant of the stock AWS-9M model that was utilized by Adam Steiner during the 1st Somerset Strikers' liberation of Somerset in the midst of the Clan Invasion..  
+    <t xml:space="preserve">A customized variant of the stock AWS-9M model that was utilized by Adam Steiner during the 1st Somerset Strikers' liberation of Somerset in the midst of the Clan Invasion. 
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Command Mech&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.14&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">A customized variant of the stock AWS-9M model that was utilized by Adam Steiner during the 1st Somerset Strikers' liberation of Somerset in the midst of the Clan Invasion.. 
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Command Mech&lt;/color&gt;&lt;/b&gt;
+    <t xml:space="preserve">A customized variant of the stock AWS-9M model that was utilized by Adam Steiner during the 1st Somerset Strikers' liberation of Somerset in the midst of the Clan Invasion.
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Командирский мех&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.14&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -268,7 +268,7 @@
   </si>
   <si>
     <t xml:space="preserve">A customized BNC-5S that sacrifices weaponry for mobility. An ER PPC and heat sink are removed to add four jump jets.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Battle Fists&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Бойцовский клуб&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.22&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -290,7 +290,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Banshee HK mounts two Hydraulic Fists and is outfitted with a selection of newly developed defensive technologies.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Battle Fists&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Бойцовский клуб&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.17&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -318,7 +318,7 @@
   </si>
   <si>
     <t xml:space="preserve">The unique “La Malinche” variant is a powerful war machine, and with the Aztec-inspired art of old Terra, she is both as beautiful, as she is deadly.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Прочный&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.22&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -340,7 +340,7 @@
   </si>
   <si>
     <t xml:space="preserve">This Star League era variant removes two of the forward-facing medium lasers, both machine guns, the SRM launcher and their ammunition. In place of the SRM launcher are three Streak SRM-2 launchers with a single ton of ammunition with an extra PPC mounted in the left arm. Sixteen double heat sinks keep the 'Mech cool, and the 'Mech's armor is upgraded to Ferro-Fibrous armor. An extra half ton of armor is also installed.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Command Mech&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Командирский мех&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.2&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -362,13 +362,13 @@
     <t>chassisdef_battlemaster_BLR-1SH_hans.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">A Prototype that was modified For Hans Davions personal use. .
+    <t xml:space="preserve">A Prototype that was modified For Hanse Davions personal use.  
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Command Mech&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.15&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">A Prototype that was modified For Hans Davions personal use. .
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Command Mech&lt;/color&gt;&lt;/b&gt;
+    <t xml:space="preserve">A Prototype that was modified For Hanse Davions personal use.
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Командирский мех&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.15&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -393,7 +393,7 @@
   </si>
   <si>
     <t xml:space="preserve">The AS7 'Boar's Head' is a little-seen trial Atlas run that attempted to make a more mobile striker assault 'Mech while still maintaining the dreaded reputation of the Atlas. Among Defiance's changes included routing all the energy weapon power couplings to the arms - 3 in each - and a massive XL engine. Ultimately, the AS7-BH proved too fragile and vulnerable to weapons loss for it's weight and altogether excessive cost.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Intimidating&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Наводящий ужас&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.23&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -415,7 +415,7 @@
   </si>
   <si>
     <t xml:space="preserve">While feared by the Inner Sphere, the Supernova design was born out of necessity in an attempt to address ammunition shortages by changing the original King Crab design to an all-energy loadout. The Boiler is a customized Supernova variant that seeks to re-engineer the Supernova back to the original King Crab loadout using Clan technology, essentially making the Boiler a 'King Crab IIC'. It mounts an Ultra AC/20 in each arm supported by a Large Pulse Laser in the right torso and an LRM-15 rack in the left. As it was built upon the frame of the standard Supernova, it retains the jump jets but mounts only seventeen double heat sinks. Like its progenitor, the Boiler lacks field endurance, carrying only two tons of Ultra Autocannon rounds and one ton of LRM reloads.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Улучш. наведение - Long&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.25&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -443,7 +443,7 @@
   </si>
   <si>
     <t xml:space="preserve">Duncan Fisher once said the Butcher was the natural product of Solaris' sweaty and testosterone driven battles. Forged in the heat of battle and adorned with the remains of other Gladiator's Mechs.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Прочный&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.09&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -471,7 +471,7 @@
   </si>
   <si>
     <t xml:space="preserve">The personal ride of MechWarrior Jenny Templeton of the Chesterton Reserves. This custom variant of the Catapult C1, the 
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Accurate Weapon - Missiles&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Точное оружие - Missiles&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.14&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -499,7 +499,7 @@
   </si>
   <si>
     <t xml:space="preserve">The personal 'Mech of Force Commander Pasi Irin assigned to the First Free Worlds Legionnaires, this custom variant replaces the SRM-6 w/Artemis IV with a pair of Streak SRM-2 and additional armor.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Stable Weapons&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Надёжное вооружение&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.12&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -527,7 +527,7 @@
   </si>
   <si>
     <t xml:space="preserve">Punch Bot started as an standard CGR-1A1 of a lance sized merc unit with limited funds available. The first pilot repeatedly threw his 'Mech first into every tough situation hoping to to be able to collect the insurance on the Charger, but the 'Mech just wouldn't die. Eventially the unit realized they could save over 10 tons by replacing the LTV 400 Engine with a GM 380 out of a salvaged Banshee. The then dropped 5 of those tons of the 'Mech's overall weight to keep the same stop speed. The extra tonnage allowed them to embrach Punch Bot's usual tactics with mounting Jump Jets, a ton and a half extra armor and upgraded arm actuators.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Protected Actuators&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Закрытые приводы&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.16&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -583,7 +583,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Clint was primarily designed as a cheap recon unit, with the capabilities of a well-armed, low-end medium weight 'Mech, and in this regard it served well. With a top speed of 97.2 km/h and a jumping capability of one hundred and eighty meters, the Clint can easily keep up with other recon elements and maneuver through mountainous or urban terrain. This custom model exchanges the Autocannon/5 with a Large Laser and four Heat Sinks.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Variable Range Targeting&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Разнодальний прицел&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -611,7 +611,7 @@
   </si>
   <si>
     <t xml:space="preserve">A Custom configuration of the NovaCat. Damage viable at any range.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Extended Torso Twist&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Доворот торса&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.18&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -639,7 +639,7 @@
   </si>
   <si>
     <t xml:space="preserve">A unique Commando piloted by Captain Bono Duganmare of the 22nd Skye Rangers, the "Death's Knell"; is refitted with recovered LosTech. Swapping the standard SRM racks for an additional 3 Medium lasers, allows the TDK’s engine to be refitted with a 175 core. The inclusion of DHS keeps the mech comfortably cool. An extra half ton of armour round out the design.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Узкий / Низкий профиль&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.03&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -670,7 +670,7 @@
   </si>
   <si>
     <t xml:space="preserve">Jake Kalmar's infamous Ravager was built around a 285-rated XL Engine to save weight to carry eighteen tons of armor and fifteen double heat sinks. Offensively the Ravager is armed with a Gauss Rifle in the left arm and a Ultra AC5 in the right torso, supported by a center torso mounted Large Pulse Laser, a standard Large Laser in the left torso and right arm, rounded out by a Medium Laser in the head and each arm. Two tons each of Gauss and UAC reloads gave it good endurance. The 'Mech was salvaged by Chloe's Cavaliers after they tracked Kalmar to Sigurd in 3037 and killed him there.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Прочный&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.22&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -698,7 +698,7 @@
   </si>
   <si>
     <t xml:space="preserve">A custom Cougar configuration, the Blood Adder is armed with a pair of ATM-9’s. A pair of torso mounted HMG’s back the ATM’s up at closer ranges while a head mounted AMS enhances the configurations defensive capabilities. 
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Advanced Optics&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Продвинутая оптика&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.06&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -726,7 +726,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Hohiro configuration of the Dire Wolf is used by Hohiro Kurita and has a mixed long and short range weapons profile. For long range hitting power, an ER PPC and a Gauss Rifle provide overwhelming punch. To engage enemies at long to medium ranges, three Large Pulse Lasers are carried. One ER Small Laser and one Streak SRM-6 round out this configuration with some short range punch.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Улучш. наведение - Long&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.24&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -754,7 +754,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Dire Wolf is one of the OmniMechs that became feared throughout the Inner Sphere during the initial Clan Invasion and rightly so. The Dire Wolf weighs in at an impressive one hundred tons and has a relatively slow cruising speed of 54 km/h provided by a 300 XL engine. Its speed and armor protection matches that of an Atlas, but it has superior potential firepower with fifty and a half tons of free pod space for weapons and equipment. It is these traits which saw the 'Mech christened Daishi (pseudo-Japanese for 'Great Death') by the criminal underbelly of the Draconis Combine, a name that would be proven grimly accurate time and time again.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Улучш. наведение - Long&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.24&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -792,8 +792,7 @@
     <t>chassisdef_dragon_DRG-2Y_Yorioshi.YangsThoughts</t>
   </si>
   <si>
-    <t xml:space="preserve">If you thought the Dragon 1N and 1C were fast, rugged Heavy 'Mechs, this one-of-a-kind and quite unusual refit for a Dragon took it to the next level.
-Named after its pilot, the &lt;b&gt;Yorioshi&lt;/b&gt;, was the personal ride of Warlord Syovo Yorioshi, Commander of the Benjamin Military District from 25th May to 26th September 3025 during the Battle of Galtor III whom personally led the Seventeenth Benjamin Regulars. The loadout consisted of a Large Laser where the AC/5 used to be, a Flamer and SRM4 fed by 1 ton of ammo replaced the LRM rack, the remaining Medium Laser on the left arm, and finally a Small Laser situated next to the cockpit. An additional 5 heat sinks were added and an extra 3 tons of armor for increased protection.</t>
+    <t>If you thought the Dragon 1N and 1C were fast, rugged Heavy 'Mechs, this one-of-a-kind and quite unusual refit for a Dragon took it to the next level.</t>
   </si>
   <si>
     <t>chassisdef_ember_FS9-E.Description.Details</t>
@@ -805,7 +804,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Ember was designed to bring the heat and keep cooking its enemies until they give up and go home.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Ubiquitous&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Вездесущий&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.09&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -833,7 +832,7 @@
   </si>
   <si>
     <t xml:space="preserve">A unique variant of the Emperor which was discovered in a Brian Cache by Clan Goliath Scorpion MechWarrior Nerran. The Clan warrior restored the ancient 'Mech by refitting the right arm's LB 10-X Autocannons with Clan produced Gauss Rifle and placed a Star League tech ER PPC in the right torso.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Command Mech&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Командирский мех&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.23&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -855,7 +854,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Enforcer 7S is an NAIS prototype carrying a mostly functional Gauss rifle prototype. This one seems to be stolen.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Accurate Weapon - Gauss&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Точное оружие - Gauss&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -877,7 +876,7 @@
   </si>
   <si>
     <t xml:space="preserve">Capable of reaching speeds of 87 km/h with it’s MASC activated, the Executioner is a fast 95 ton Clan OmniMech. Powered by a 380 rated XL Engine, the Executioner has 26.5 tons of pod space. The MASC and 4 Jump Jets are hardwired into the chassis. The personal Mech of Gorman Bekker of the Ghost Bears, the Executioner EXE-CH (Cherbi) is armed with an LRM-15 for long range combat. For close range combat, the EXE-CH has a UAC/20, a trio of ER Small Lasers and a Streak SRM-6. \n\n
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Intimidating&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Наводящий ужас&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.23&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -896,7 +895,7 @@
     <t>Capable of reaching speeds of 87 km/h with it’s MASC activated, the Executioner is a fast 95 ton Clan OmniMech. Powered by a 380 rated XL Engine, the Executioner has 26.5 tons of pod space. The MASC and 4 Jump Jets are hardwired into the chassis. The personal Mech of Gorman Bekker of the Ghost Bears, the Executioner EXE-CH (Cherbi) is armed with an LRM-15 for long range combat. For close range combat, the EXE-CH has a UAC/20, a trio of ER Small Lasers and a Streak SRM-6. \n\n&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Intimidating&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.18&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t>Capable of reaching speeds of 87 km/h with it’s MASC activated, the Executioner is a fast 95 ton Clan OmniMech. Powered by a 380 rated XL Engine, the Executioner has 26.5 tons of pod space. The MASC and 4 Jump Jets are hardwired into the chassis. The personal Mech of Gorman Bekker of the Ghost Bears, the Executioner EXE-CH (Cherbi) is armed with an LRM-15 for long range combat. For close range combat, the EXE-CH has a UAC/20, a trio of ER Small Lasers and a Streak SRM-6. \n\n&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Intimidating&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.18&lt;/color&gt;&lt;/b&gt;</t>
+    <t>Capable of reaching speeds of 87 km/h with it’s MASC activated, the Executioner is a fast 95 ton Clan OmniMech. Powered by a 380 rated XL Engine, the Executioner has 26.5 tons of pod space. The MASC and 4 Jump Jets are hardwired into the chassis. The personal Mech of Gorman Bekker of the Ghost Bears, the Executioner EXE-CH (Cherbi) is armed with an LRM-15 for long range combat. For close range combat, the EXE-CH has a UAC/20, a trio of ER Small Lasers and a Streak SRM-6. \n\n&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Наводящий ужас&lt;/color&gt;&lt;/b&gt;\n\n&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.18&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_falcon_FLC-4Nb-Saho.Description.Details</t>
@@ -908,7 +907,7 @@
   </si>
   <si>
     <t xml:space="preserve">Designed for the SLDF in the wake of the Reunification War, the Falcon is a Scout Mech hunter and an anti-infantry Mech. A 30 ton Light Mech, the Falcon is powered by a 180 rated Fusion Core. The Falcon FLC-4Nb-Saho is armed with a Medium Laser and a Large Pulse Laser.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Узкий / Низкий профиль&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.06&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -930,7 +929,7 @@
   </si>
   <si>
     <t xml:space="preserve">The JagerMech Firebrand swaps the signature AC5s for PPCs and extra heatsinks, giving it reliable long range damage.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: ПВО&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.14&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -958,7 +957,7 @@
   </si>
   <si>
     <t xml:space="preserve">The personal 'Mech of David Kalasa, the Founding Khan of Clan Sea Fox, later renamed to Clan Diamond Shark. He was killed piloting it during Operation KLONDIKE, and while his 'Mech was recovered afterwards it somehow got "misplaced" during transport back from the battlefield. The 'Mech was heavily converted to use Clan tech, being able to convert all the lasers to Extended Range variants and still improve the cooling capbilities.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Прочный&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.2&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -980,7 +979,7 @@
   </si>
   <si>
     <t xml:space="preserve">The 'Ghillie' is built for Davion's NAIS' Team Banzai, named after the camouflage suits often worn by snipers. It carries an Improved Gauss Rifle and Electronics to be formidable Skirmisher and Scout.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Accurate Weapon - Gauss&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Точное оружие - Gauss&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1012,9 +1011,7 @@
     <t>chassisdef_grand_dragon_DRG-1G_douglas.YangsThoughts</t>
   </si>
   <si>
-    <t xml:space="preserve">Now this one here is interesting. A custom 'Grand Dragon' nearly remade back into a 1N. The pilot was Professor Douglas Running-Elk who was both a MechWarrior and a Scholar. Interesting combination wouldn't you say?
-Originally Running-Elk was merely the driver for Team Banzai's Coolant Truck, when he indirectly captured a Grand Dragon, a first generation 1G model, after saving the life of an enemy Kuritan MechWarrior.
-For saving the life of the Kurita pilot and capturing the 'Grand Dragon', Douglas was promoted to MechWarrior and assigned what would become his personal 'Mech.</t>
+    <t>Now this one here is interesting. A custom 'Grand Dragon' nearly remade back into a 1N. The pilot was Professor Douglas Running-Elk who was both a MechWarrior and a Scholar. Interesting combination wouldn't you say?</t>
   </si>
   <si>
     <t>chassisdef_grasshopper_GHR-R.Description.Details</t>
@@ -1026,7 +1023,7 @@
   </si>
   <si>
     <t xml:space="preserve">The customized Grasshopper used by 3rd Davion Guards Hauptmann Reynolds Allen when he commanded the Allen's Animals raiding company during Operation Bird Dog. To help him hold out against Clan Smoke Jaguar forces on Luzerne, this 'Mech's standard weapons were replaced with a trio of Clan-Tech ER large lasers mounted in the head and center torso supported by a Clan ER Medium Laser mounted in each arm and side torso. The remaining free weight was devoted to IS-grade double heat sinks.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Прочный&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.15&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1054,7 +1051,7 @@
   </si>
   <si>
     <t xml:space="preserve">The personal ride of Colonel Carlos Camacho of the 17th Recon Regiment (who captured it from the Smoke Jaguars), the Great White was later piloted by Force Commander Kali MacDougall. Seemingly a mix of the A and D configurations, the Great White mounts an ER PPC along with twin double heat sinks in each arm, and a Streak SRM-6 paired with one medium pulse laser in each torso.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Medium&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Улучш. наведение - Medium&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.17&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1079,7 +1076,7 @@
   </si>
   <si>
     <t xml:space="preserve">The HBK-GI Grid Iron is the Hero variant of the Hunchback. It has the characteristic hunch with quirks that emphasize the Gauss Rifle and Medium Pulse Lasers. It comes from the factory with Double Heat Sinks, Endo-Steel, and an XL engine. Unfortunately, since Gauss Rifles explode like ammo, the XL engine tends to be more of a downside.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Battle Fists&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Бойцовский клуб&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.09&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1101,7 +1098,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Hades is an exclusive design to Wolf's Dragoons developed from the Loki and is an attempt to rectify that design's poor armor problems while retaining its offensive capabilities. The standard chassis is replaced with an Endo Steel model and the armor is upgraded to Ferro-Fibrous. The Hades maintains the same mobility of the original Loki.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Integrated Searchlight&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Встроенный прожектор&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.08&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1192,7 +1189,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Mech Daniel received was a bridging design between the early field-test HTM-26T and the later production HTM-27T. Dropping two tons of armor and outfitted with a bulkier and less refined Endo-Steel chassis, enough weight was saved to mount a pair of experimental Luthien Armor Works developed LB 10-X AC prototypes in it arms and a pair of Telos SRM-4 launchers in its chest.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Way of the Samurai&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Путь самурая&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.14&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1208,13 +1205,13 @@
     <t>chassisdef_hatamoto-chi_HTM-SAM.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">The original version produced during 3039. Though lacking the LosTech of the HTM-27, the single production run of the original field-test Hatamoto-Chi completed on the verge of the War of 3039 came as a total shock to the attacking Lyran and Davion Forces. Since it was built on a standard chassis, the 26T had less armor, one less heat sink, and single ton of SRM ammunition in a standard ammo bin.
+    <t xml:space="preserve">Custom Hatamoto-Chi With Katana's in both arms, 4 Medium Lasers and 4 SRM6 plus JumpJets.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Way of the Samurai&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.2&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">The original version produced during 3039. Though lacking the LosTech of the HTM-27, the single production run of the original field-test Hatamoto-Chi completed on the verge of the War of 3039 came as a total shock to the attacking Lyran and Davion Forces. Since it was built on a standard chassis, the 26T had less armor, one less heat sink, and single ton of SRM ammunition in a standard ammo bin.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Way of the Samurai&lt;/color&gt;&lt;/b&gt;
+    <t xml:space="preserve">Custom Hatamoto-Chi With Katana's in both arms, 4 Medium Lasers and 4 SRM6 plus JumpJets.
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Путь самурая&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.2&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1236,7 +1233,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Heavy Metal model of the Highlander is the signature ride of Rhonda Snord of the Snord's Irregulars mercenary unit. This customized Highlander features a number of recently reintroduced Lostech technologies. The most expensive example is the 275 XL Engine which saves weight for a heavy weapons payload, a Gauss Rifle in the right arm provides respectable punch at long range, while 13 Double Heat Sinks keep the design running cool.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Reinforced Legs&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Усиленные ноги&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.21&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1258,7 +1255,7 @@
   </si>
   <si>
     <t xml:space="preserve">A 65 ton design which emphasises overwhelming firepower over speed or armour, the Hellbringer is a Clan OmniMech. Powered by 325 rated Xl Engine, the Hellbringer has 28.5 tons of pod space. A customised variant supposedly belonging to Star Commander Joanna of Clan Jade Falcon, the Hellbringer VI is armed with a pair of ER Large Lasers, an LRM-20 and an LRM-15. 4 ER Medium Lasers cover close range combat.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Integrated Searchlight&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Встроенный прожектор&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.15&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1271,19 +1268,21 @@
     <t>A 65 ton design which emphasises overwhelming firepower over speed or armour, the Hellbringer is a Clan OmniMech. Powered by 325 rated Xl Engine, the Hellbringer has 28.5 tons of pod space. A customised variant supposedly belonging to Star Commander Joanna of Clan Jade Falcon, the Hellbringer VI is armed with a pair of ER Large Lasers, an LRM-20 and an LRM-15. 4 ER Medium Lasers cover close range combat.&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Searchlight&lt;/color&gt;&lt;/b&gt;&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t>A 65 ton design which emphasises overwhelming firepower over speed or armour, the Hellbringer is a Clan OmniMech. Powered by 325 rated Xl Engine, the Hellbringer has 28.5 tons of pod space. A customised variant supposedly belonging to Star Commander Joanna of Clan Jade Falcon, the Hellbringer VI is armed with a pair of ER Large Lasers, an LRM-20 and an LRM-15. 4 ER Medium Lasers cover close range combat.&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Searchlight&lt;/color&gt;&lt;/b&gt;&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.1&lt;/color&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">A 65 ton design which emphasises overwhelming firepower over speed or armour, the Hellbringer is a Clan OmniMech. Powered by 325 rated Xl Engine, the Hellbringer has 28.5 tons of pod space. A customised variant supposedly belonging to Star Commander Joanna of Clan Jade Falcon, the Hellbringer VI is armed with a pair of ER Large Lasers, an LRM-20 and an LRM-15. 4 ER Medium Lasers cover close range combat.
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Прожектор&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>chassisdef_hellfire_HLF-COL.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">Classified Variant
+    <t xml:space="preserve">Classified Variant.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Easy to Pilot&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.14&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Classified Variant
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Pilot&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Прост в управлении&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.14&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1311,7 +1310,7 @@
   </si>
   <si>
     <t xml:space="preserve">A derivative variant of the old Bushwacker prototypes, the High Roller uses an XL275 engine and Endo-Steel structure to field an AC/10, LRM-5, three Medium Lasers, and a pair of Machine Guns. While it's enhancements increase the damage output of these weapons, it still suffers from the prototype models' electronic systems, especially in its TTS and FCS. This means that while powerful, the High Roller requires an above-average warrior to land a hit.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Узкий / Низкий профиль&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1339,7 +1338,7 @@
   </si>
   <si>
     <t xml:space="preserve">Reportedly piloted by Star Colonel Hazel of Clan Star Adder, this Highlander IIC is armed with a Gauss Rifle in the right arm and left torso, supported at short-range by a pair of Streak SRM-4 launchers in left arm and right torso. In case the four tons of Gauss rounds and five tons of Streak reloads run out, the left-arm also carries an ER Large Laser. Keeper is built around an 280 rated XL engine and an Endo Steel frame, fitted with three jump jets and twelve double heat sinks and clad in fourteen and a half tons of standard armor.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Reinforced Legs&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Усиленные ноги&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.27&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1367,7 +1366,7 @@
   </si>
   <si>
     <t xml:space="preserve">Based on the most common Hunchback ever build was the 4X upgraded with a single OmniSlot module in Right Torso as a Testbed for a wide range of newly developed Weapons and Technologies
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Battle Fists&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Бойцовский клуб&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.04&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1432,7 +1431,7 @@
   </si>
   <si>
     <t xml:space="preserve">First produced in 2948, the Ice Ferret is a medium scout OmniMech often employed as a head hunter or strike unit. A 45 ton Clan OmniMech, the Ice Ferret is powered by a 360 rated XL Engine and has 9.5 tons of pod space thanks to a combination of Endo Steel, an XL Engine and Ferro-Fibrous. The custom Ice Ferret IFR-RC is armed with a pair of Heavy Medium Lasers, a Streak SRM-6 and a Heavy Machine Gun. Guardian ECM improves the Ice Ferrets defensive capabilities.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Sensors&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Улучш. сенсоры&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.09&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1442,14 +1441,7 @@
     <t>chassisdef_ice_ferret_IFR-RC.YangsThoughts</t>
   </si>
   <si>
-    <t xml:space="preserve">First produced in 2948, the Ice Ferret is a medium scout OmniMech often employed as a head hunter or strike unit. A 45 ton Clan OmniMech, the Ice Ferret is powered by a 360 rated XL Engine and has 9.5 tons of pod space thanks to a combination of Endo Steel, an XL Engine and Ferro-Fibrous. The custom Ice Ferret IFR-RC is armed with a pair of Heavy Medium Lasers, a Streak SRM-6 and a Heavy Machine Gun. Guardian ECM improves the Ice Ferrets defensive capabilities.
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Improved Sensors&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.04&lt;/color&gt;&lt;/b&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">First produced in 2948, the Ice Ferret is a medium scout OmniMech often employed as a head hunter or strike unit. A 45 ton Clan OmniMech, the Ice Ferret is powered by a 360 rated XL Engine and has 9.5 tons of pod space thanks to a combination of Endo Steel, an XL Engine and Ferro-Fibrous. The custom Ice Ferret IFR-RC is armed with a pair of Heavy Medium Lasers, a Streak SRM-6 and a Heavy Machine Gun. Guardian ECM improves the Ice Ferrets defensive capabilities.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Sensors&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.04&lt;/color&gt;&lt;/b&gt;</t>
+    <t>First produced in 2948, the Ice Ferret is a medium scout OmniMech often employed as a head hunter or strike unit. A 45 ton Clan OmniMech, the Ice Ferret is powered by a 360 rated XL Engine and has 9.5 tons of pod space thanks to a combination of Endo Steel, an XL Engine and Ferro-Fibrous. The custom Ice Ferret IFR-RC is armed with a pair of Heavy Medium Lasers, a Streak SRM-6 and a Heavy Machine Gun. Guardian ECM improves the Ice Ferrets defensive capabilities.</t>
   </si>
   <si>
     <t>chassisdef_ilya_muromets_CTF-IM.Description.Details</t>
@@ -1461,7 +1453,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Cataphract Hero 'Mech, Grigori Kovalenko's custom Cataphract 'Ilya Muromets', Identification Number CTF2X0042A-1013, is armed with an AC/5 in each arm, supported by a right arm Small Laser, a Medium Laser in each side torso and a right torso mounted AC/10. Such a heavy autocannon loadout is made possible through the use of 280 rated XL engine, while three tons of AC/5 rounds and two of AC/10 reloads keep those cannons firing.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Protected Actuators&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Закрытые приводы&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.15&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1520,7 +1512,7 @@
   </si>
   <si>
     <t xml:space="preserve">Known as Cat among the MechWarriors of Sorenson's Sabres, the personal 'Mech of Grace Shiro has been extensively modified over the years to aid her role as the unit's spotter. Originally trading two Medium Lasers for extra armor, in the lead-up to the War of 3039 her 'Mech was outfitted a less-refined experimental Endo Steel chassis and Ferro-Fibrous armor, allowing the SRM launcher to be replaced with an advanced Octagon Missile Magnet Narc Missile Beacon with three tons of Homing Pods.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Lifesupport&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Кабина с удобствами&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.03&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1548,7 +1540,7 @@
   </si>
   <si>
     <t xml:space="preserve">A customized Jenner for Chu-i Samuli Rinne of the DCMS. The 'Mech's engine was upgraded with a 245 rated XL Engine and 3.5 tons of Ferro-Fibrous Armor. By removing the standard SRM launcher, DCMS techs freed enough room to add CASE and a single LRM-15 with two tons of ammunition. Rinne's Jenner keeps the standard complement of Medium Lasers.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Lifesupport&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Кабина с удобствами&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.03&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1570,7 +1562,7 @@
   </si>
   <si>
     <t xml:space="preserve">A field refit given popularity after repeated sightings in combat piloted by MechWarrior Leigh Voss, the CLPT-Jester typically begins life as a refit kit for a CPLT-K2 or similar variant. Stripping out the PPCs, the Jester manages to run enough power couplings to cram a laser into each arm, each side torso, and two in the center torso, with additional fittings for support weapons if available. It also mounts an AMS system and advanced TTS systems, allowing for lethally accurate fire even beyond traditional weapon ranges. The only major advanced piece of kit is its Endo-Steel structure; the engine and armor are both standard, making the Jester quite tough. With a plethora of double heat sinks keeping it's weapons cool and the ability to lay down volley after pinpoint volley of fire, the Jester is simple, but not to be underestimated.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Accurate Weapon - Energy&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Точное оружие - Energy&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.14&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1592,7 +1584,7 @@
   </si>
   <si>
     <t xml:space="preserve">Named after monsters of old, the King Crab 'Kaiju' is truly a beast of the sea, mounting four hot PPCs and an Ultra AC/5, an LRM15 for indirect fire, and 15 double heatsinks to keep it running, its foes should run screaming.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Command Mech&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Командирский мех&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.23&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1608,13 +1600,13 @@
     <t>chassisdef_keagle_ADR-KGL.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">This mech was salvaged in the later stages of the wars against the clans by a innately lucky mercenary who maanged to pilfer it without his employers catching wind of his new found mech. He promptly emblazoned a Large orange Corgi, a terran creature on the side of the mech and fashioned on as many of his horded parts as the poor mech engineers could jury rg on to the frame to create this monstrosity with no thought for if they SHOULD do it.
+    <t xml:space="preserve">This mech was salvaged in the later stages of the wars against the clans by a innately lucky mercenary who managed to pilfer it without his employers catching wind of his new found mech. He promptly emblazoned a Large orange Corgi, a terran creature on the side of the mech and fashioned on as many of his horded parts as the poor mech engineers could jury rg on to the frame to create this monstrosity with no thought for if they SHOULD do it.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.06&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">This mech was salvaged in the later stages of the wars against the clans by a innately lucky mercenary who maanged to pilfer it without his employers catching wind of his new found mech. He promptly emblazoned a Large orange Corgi, a terran creature on the side of the mech and fashioned on as many of his horded parts as the poor mech engineers could jury rg on to the frame to create this monstrosity with no thought for if they SHOULD do it.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Узкий / Низкий профиль&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.06&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1642,7 +1634,7 @@
   </si>
   <si>
     <t xml:space="preserve">A Light Clan OmniMech, the 30 ton Kit Fox was introduced in 2890 by Clan Cloud Cobra. Favouring a mix of fire power and armor over speed, the Kit Fox is powered by a 180 XL Engine and features a mix of Endo Steel and Ferro Fibrous; giving it 16 tons of pod space. The Kit Fox COL is armed with paired SRM-6’s and SRM-4’s. Dual ER Medium Lasers, 3 Machine Guns and a Laser AMS round out the variant.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Узкий / Низкий профиль&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.06&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1670,7 +1662,7 @@
   </si>
   <si>
     <t xml:space="preserve">Featured as a custom Solaris VII 'Mech the 'Kraken' Is very similar too and likely built upon the chassis of a standard AS7-K, switching out the Medium Pulse Lasers for standard models.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Intimidating&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Наводящий ужас&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.23&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1717,7 +1709,7 @@
   </si>
   <si>
     <t xml:space="preserve">Named after the largest trebuchet ever built in primitive Terra, the Warwolf packs heavy close range weaponry in the form of paired SRMs, streaks, and pulse lasers.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Прост в обслуживании&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.09&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1739,7 +1731,7 @@
   </si>
   <si>
     <t xml:space="preserve">The personal ride of Smoke Jaguar Galaxy Commander Russou Howell. The Bandit is armed with a mammoth Ultra Autocannon/20 in each side torso and only twin ER Small Lasers in each arm as supporting weapons, its pilot must make every shot of its combined total of two tons of reloads count. 
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Medium&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Улучш. наведение - Medium&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.14&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1770,7 +1762,7 @@
   </si>
   <si>
     <t xml:space="preserve">Piloted by an ex-Smoke Jaguar turned Solaris VII MechWarrior known only as Garrett, the 'Revenant' is a long-range specialist mounting a massive 60 Long range Missile tubes in its side torsos supported by four Medium Pulse Lasers in the arms and center torso. 
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Medium&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Улучш. наведение - Medium&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.14&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1795,7 +1787,7 @@
   </si>
   <si>
     <t xml:space="preserve">Appearing in 3012, the Marauder II is a redesign of the classic Marauder, turning the 75 ton Heavy Mech into a 100 ton Assault. Originally a Wolfs Dragoons exclusive Mech, it wasn’t until after the 4th War of Succession in 3030 that the Mech would spread beyond the Dragoons. Powered by a 300 rated XL Engine, the Marauder II MAD-AL is armed with paired UAC/10’s, paired Streak SRM-6’s and Medium Pulse Lasers. A Beagle Active Probe rounds out the variant. 
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Узкий / Низкий профиль&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.23&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1826,7 +1818,7 @@
   </si>
   <si>
     <t xml:space="preserve">A customized variant of the Marauder IIC, the Scorch mounts a Large Pulse Laser and Ultra AC/5 in each arm supported by four Streak SRM-6 launchers split between each side torso. Twelve tons of Ferro-Fibrous armor protect Scorch and the two-tons each of Streak and Ultra Autocannon ammo and fifteen double heat-sinks it carries.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Hyper-Extending Actuactors&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Выдвижные руки&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.18&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1854,7 +1846,7 @@
   </si>
   <si>
     <t xml:space="preserve">This unusual variant piloted by the Bounty Hunter featured various lostech equipment: the standard 300 Vlar fusion engine was downgrade to a 225-rated version giving it a top speed of 54 kph. It mounted a standard PPC and a Medium Laser in each arm while another PPC and medium laser were mounted on the right torso; additional medium lasers were mounted in the center and left torso. Sixteen double heat sinks were use to cool this beast down, allowing it to firing all 3 PPCs without even generating excess heat. It featured fourteen and a half tons of standard armor, giving it maximum armor for it's weight, and was capable of jumping over 90 meters with three jump jets. It was also painted all green with credit symbols.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Command Mech&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Командирский мех&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.16&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1882,7 +1874,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Bounty Hunter upgraded his Marauder sometime in 3044. The fusion engine was upgrade to an extra-light version while keeping it at the same rating to save weight, though the increased size meant three heat sinks had to be removed. The standard PPCs were upgrade to ER PPCs, both the left and right torso-mounted medium lasers were removed while the center torso medium laser was moved to the head to make room for a Gauss Rifle on the right torso and two tons of ammunition. This upgrade allowed the Bounty Hunter to engage enemies at a far greater range while still able to continuously operate without fear of overheating.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Command Mech&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Командирский мех&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.16&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1904,7 +1896,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Marauder was first built by General Motors in 2612 for use as an attack and direct fire support BattleMech. The first 'Mech to diverge from the traditional humanoid shape of previous machines, the Marauder was one of the most well-known 'Mechs in existence and originally meant to usher in a new generation of 'Mechs. Unfortunately, with the fall of the Star League, this new generation never quite materialized. On its own merits though, the Marauder was a devastatingly powerful 'Mech, outclassed only by larger machines like the Stalker and BattleMaster.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Hyper-Extending Actuactors&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Выдвижные руки&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.11&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1926,7 +1918,7 @@
   </si>
   <si>
     <t xml:space="preserve">Zachary Miles Hawkins personal variant of the mauler saw use at the time of the Clan Invasion, the Knockout upgrades the torso mounted missile racks from 15s to LRM-20s and inverts the usual Mauler energy and ballistic placements with an LB 10-X AC in each arm supported by ER Larger Laser in each side torso. Fitted with an 270 XL engine and twelve and half tons of Ferro-Fibrous armor, Knockout's heavy weapons array comes at the cost of field endurance, mounting only ten double heat sinks, two tons of LB-X autocannon munitions and single ton of LRM missiles.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Distracting&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Устрашающий&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.21&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1948,7 +1940,7 @@
   </si>
   <si>
     <t xml:space="preserve">A uniquely customized Merlin introduced in 3064, which was created by a tech named Porter Romero on the world of Armington. He salvaged the 'Mech from a pirate raid during the 3060s. Using a wrecked militia Bulldog for parts, he replaced the ruined PPC and LRM-5 with the tank's Large Laser and SRM 4 Launcher as well as adding additional armor.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Прост в обслуживании&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1973,7 +1965,7 @@
   </si>
   <si>
     <t xml:space="preserve">Implied to be a Stalker piloted by J. Elliot Jamison, the Misery Hero 'Mech retains the STK-3F's twin Medium Lasers in each arm, right torso mounted SRM-6 and center torso mounted Large Laser but removes the remaining SRM-6 and LRM-10s to mount a mammoth Gauss Rifle in the left torso. Carrying two tons each of Gauss rounds and SRM missiles, twenty-two single heat sinks strive to keep the Misery in the thick of combat.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Combat Computer&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Боевой компьютер&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.18&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -1995,7 +1987,7 @@
   </si>
   <si>
     <t xml:space="preserve">Based on the personal Grasshopper of Tor Miraborg, the Mjölnir is primarily armed with a PPC in the right arm and Gauss Rifle on the left arm, retaining the GHR-5H's jump jets, side torso mounted Medium and center torso mounted Large Lasers. Built around a fragile 280 rated XL Engine, an Endo Steel frame and near maximum standard armor, three tons of Gauss rounds and thirteen double heat sinks give Mjölnir more than adequate field endurance.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Aerial Assault&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Воздушный штурм&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.15&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2017,7 +2009,7 @@
   </si>
   <si>
     <t xml:space="preserve">Переделанный вариант Night Gyr. The Jade Kite (Нефритовый воздушный змей) оснащен парой UAC/2 в левой руке, с двумя тоннами боеприпасов. В левый полуторс установлено два пулемета, каждый с тонной снарядов для автопушек и половиной тонны пулеметных лент. Правая рука несет пару ER PPC. В правом полуторсе две установки Streak SRM-6 с двумя тоннами боекомплекта.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Combat Computer&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Боевой компьютер&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.12&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2048,7 +2040,7 @@
   </si>
   <si>
     <t xml:space="preserve">Terry Ford's "Number Seven" is built around an 320-rated standard engine, the slower engine allows it to retain the 'Mech's ten tons of armor and head mounted small laser while freeing up weight to carry a Large Laser in each side torso supported by a Medium Laser in each arm and the right torso. Twenty-five single heat sinks and four jump jets ensure Number Seven surprising mobility and endurance in battle.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Barrel Fist&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Руки-базуки&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.12&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2076,7 +2068,7 @@
   </si>
   <si>
     <t xml:space="preserve">This Orion was used by the commanding general Aleksandr Kerensky himself in the war against the Usurper. This mech carries an experimental snub nose PPC.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: ПВО&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.18&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2104,7 +2096,7 @@
   </si>
   <si>
     <t xml:space="preserve">When Ostmann Industries first tried creating a heavier 'Mech than the Ostwar it resulted in the OstLord. It used much of the same components as the Ostwar but with size increased as needed. This 80 ton prototype assault 'Mech carried double LRM15 launchers, a Large Laser and two Medium Lasers and used a 320 rating fusion core. However, the design never went past prototype stage as it showed severe reliability problems during its trials and Ostmann Industries sold the few prototypes created on the second hand market before shutting the project down.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Maintain&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Прост в обслуживании&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.12&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2132,7 +2124,7 @@
   </si>
   <si>
     <t xml:space="preserve">Piloted by Michi Noketsuna in the fighting on Misery against Wolf's Dragoons in 3028, this customized Ostroc had a top speed of 64 km/h. The reduced engine size allowed the Ostroc Michi to jump 120 meters and replace the SRM-4 with an SRM-6 launcher.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Узкий / Низкий профиль&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.11&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2154,7 +2146,7 @@
   </si>
   <si>
     <t xml:space="preserve">The custom 'Mech of Major Kira Tang, the Ostroc OSR-2X, is a full rebuild of the original mech. Sporting 4 Medium Pulse Lasers, 2 Small Lasers, a NARC and a supercharged 360 XL fusion engine, this 'Mech is in fact a lot deadlier than it seems at first glance. Using Endo-Steel structure and Ferro-Fibrous armor still leaves room for a MASC and both a Beagle Active Probe and a Guardian ECM Suite.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Узкий / Низкий профиль&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.11&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2176,7 +2168,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Jenner Hero 'Mech, the Oxide mounts an SRM-4 in each arm supported by a pair of LRM-5s in the center torso. Fitted with ten double heat sinks and carrying a ton of reloads for each missile launcher, such a heavy weapons loadout is made possible through the use of Endo Steel chassis, a downgrade to a 235 rated engine and the removal of Jenner's signature jump jets.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Lifesupport&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Кабина с удобствами&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2198,7 +2190,7 @@
   </si>
   <si>
     <t xml:space="preserve">The personal 'Mech of Hohiro 'T-Bone' Tanaka, a Solaris Arena Pilot and member of the 'Mavericks'. His Panther has been modified for use in the close confines of the dueling arena. The PPC was removed from the right arm, and a large laser, medium laser, and one heat sink were installed.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Aerial Assault&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Воздушный штурм&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2214,9 +2206,7 @@
     <t>chassisdef_panther_PNT-9R_Tanaka.YangsThoughts</t>
   </si>
   <si>
-    <t xml:space="preserve">Tanaka apparently had success with this custom refit in the Solaris Arena as a close-range Skirmisher. He and his other teammate, Jason 'Equalizer' Yasbek were considered a favored 'Unlimited Class' team in the dueling arenas of Solaris City.
-The 'Mavericks' luck ran out in a little known match that occurred on 26th May, 3027, during Solaris VII in the Steiner Stadium. Their opponents were newcomers, the 'Bad Bloods', with only 12 previous wins; the twins Angela 'Tempest' Marston and Bart 'Quasimodo' Marston from the Reaches.
-The match between the 'Mavericks' and 'Bad Bloods' had a much smaller audience, but the fight was quite astonishing. Bart stated one of the stadiums moving walls snapped down and revealed Tanaka's Panther and before Tanaka could react, Bart fired a full AC/20 salvo from his HBK-4G into the other pilot's cockpit. Meanwhile Angela's Jenner was out of the fight, but he faced off against Jason Yasbek's ENF-4R and won without a scratch!</t>
+    <t>Tanaka apparently had success with this custom refit in the Solaris Arena as a close-range Skirmisher. He and his other teammate, Jason 'Equalizer' Yasbek were considered a favored 'Unlimited Class' team in the dueling arenas of Solaris City.</t>
   </si>
   <si>
     <t>chassisdef_penetrator_PTR-4D_Christifori.Description.Details</t>
@@ -2256,7 +2246,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Pirate's Bane is a light mech hunter killer built to keep the periphery pirates at bay. Keep moving and their teeth will be held at bay.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Узкий / Низкий профиль&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.02&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2284,7 +2274,7 @@
   </si>
   <si>
     <t xml:space="preserve">Danielle Peterson's Awesome, the 'Pretty Baby' Hero 'Mech has some unexpected speed, achieved through the use of an 340-rated Extralight Engine. The Pretty Baby (serial number AWS8V99TG-2957) also features a unique weapon loadout as well - mounting a standard PPC in the right arm, a LRM-15 in the right torso, a Medium Laser in the head, Large Laser in the left torso and an SRM-4 in the left arm. 19 Double Heat Sinks, two tons of LRM and three of SRM missiles keep it in the thick of battle.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Combat Computer&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Боевой компьютер&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.19&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2306,7 +2296,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Quarantine Hero 'Mech is built around 275 rated XL engine and an Endo Steel frame, fitted with three jump jets and clad in near maximum armor. Using its entire left-side as a shield, the Quarantine carries an AC/5 and a trio of Medium Lasers in its right arm supported by two right torso mounted SRM-6 launchers. Carrying only twelve double heat sinks, the 'Mech stores three tons worth of SRM and autocannon reloads split between both legs.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Extended Torso Twist&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Доворот торса&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2334,7 +2324,7 @@
   </si>
   <si>
     <t xml:space="preserve">A customized variant of the Vapor Eagle. The Rival carries 3 Heavy Machine Guns in its left arm, while a single ER PPC is mounted in the right arm. An ATM 9s and three ton of ATM ammo is in the right torso mounted with MASC.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Aerial Assault&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Воздушный штурм&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.14&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2356,7 +2346,7 @@
   </si>
   <si>
     <t xml:space="preserve">The personal mech of Clan Nova Cat Khan, Lucian Carns. The ''Mishapeshu'' uses a ER Large Laser in its left arm. The right arm carries an Ultra Autocannon/5 with one ton of ammo, supported by an ER Medium Laser and in the right torso, a Streak SRM-6 with a ton of ammo.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Узкий / Низкий профиль&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.09&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2378,7 +2368,7 @@
   </si>
   <si>
     <t xml:space="preserve">Reportedly piloted by Star Colonel Jaela Ward, the Orion IIC Hero 'Mech retains the right torso mounted Gauss Rifle unchanged but swaps the LRM rack for an ER PPC, upgrades the SRM-4 rack with Artemis IV FCS and downgrades the arm lasers to ER Medium Lasers. Carrying three tons of Gauss rounds and two of SRM reloads, the weight saved allows the mounting of two extra double heat sinks and MASC.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: ПВО&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.16&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2406,7 +2396,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Snake is a 'Mech that was built under the aegis of an Elemental hunter. With the power of hindsight though the Snake is clearly designed to hunt Inner Sphere Battle Armor suits. The 'Mech is built using a Vox 225 XL Engine to move at a top speed of 86.4 kph. The Snake also has a jumping capability of one hundred and fifty meters making it capable of outmaneuvering any battle armor suit and also keeping it on par with most medium 'Mechs. The Snake is also armored with seven tons of armor and uses double heat sinks to cool the 'Mech's excess heat.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Short&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Улучш. наведение - Short&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.08&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2428,7 +2418,7 @@
   </si>
   <si>
     <t xml:space="preserve">Designed after the personal ‘Mech of Elle Bennett of the 5th Donegal Guards, the GRF-1E 'Sparky' is a radical departure from standard Griffin design ethos. In place of its typical missile rack, the 1E features enough power couplings to mount a cluster of Medium Lasers - five of them, in fact - alongside the typical PPC. In a curious design decision, the engineers behind the Sparky opted for an innovative radiator pattern instead of more sophisticated heat sinks, likely as a cost-saving experiment. While this does give the 'Mech above-average heat dissipation, it's provided complement of standard heat sinks is still woefully inadequate for such a high heat load. This means that, while powerful, this 'Mech needs an equally disciplined pilot to avoid cooking alive.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Battle Fists&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Бойцовский клуб&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2484,7 +2474,7 @@
   </si>
   <si>
     <t xml:space="preserve">The personal 'Mech of Sho-sho Jagawen Torisobo of the Eigth Sword of Light. Designed for close combat, this custom Stalker replaces the LRM launchers with twin SRM-6 racks in each torso and installed six additional heat sinks.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Combat Computer&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Боевой компьютер&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.2&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2500,14 +2490,13 @@
     <t>chassisdef_stalker_STK-3F_Jagawen.YangsThoughts</t>
   </si>
   <si>
-    <t xml:space="preserve">The personal 'Mech of Sho-sho Jagawen Torisobo of the Eigth Sword of Light. Designed for close combat, this custom Stalker replaced the LRM launchers with twin SRM-6 racks in each torso and installed six additional heat sinks.
-The original model 3F is certainly a powerful machine, but the &lt;b&gt;Jagawen&lt;/b&gt; turns the Stalker into a terrifying Close Support Assault.</t>
+    <t>The personal 'Mech of Sho-sho Jagawen Torisobo of the Eigth Sword of Light. Designed for close combat, this custom Stalker replaced the LRM launchers with twin SRM-6 racks in each torso and installed six additional heat sinks.</t>
   </si>
   <si>
     <t>chassisdef_stormcrow_SCR-Attwater.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">A common sight in Clan Toumans, the 55 ton Stormcrow is a second generation OmniMech that entered production in 2930. Powered by a 330 rated XL Engine, a combination of Ferro Fibrous and Endo Steel give the OmniMech 23 tons of Pod Space. The Stormcrow Attwater is the personal configuration of Mia Attwater of the Nova Cats. An anti aircraft specialist, her Stormcrow was reconfigured to improve it’s effectiveness in this role. A pair of LB-5X’s and a pair of LRM-5’s augmented by Artemis IV make up the Attwater’s armament with 6 Jump Jets filling the remaining pod space.
+    <t xml:space="preserve">A common sight in Clan Toumans, the 55 ton Stormcrow is a second generation OmniMech that entered production in 2930. Powered by a 330 rated XL Engine, a combination of Ferro Fibrous and Endo Steel give the OmniMech 23 tons of Pod Space. The Stormcrow Attwater is the personal configuration of Mia Attwater of the Nova Cats. An anti aircraft specialist, her Stormcrow was reconfigured to improve its effectiveness in this role. A pair of LB-5X’s and a pair of LRM-5’s augmented by Artemis IV make up the Attwater’s armament with 6 Jump Jets filling the remaining pod space.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Stable&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.11&lt;/color&gt;&lt;/b&gt;</t>
   </si>
@@ -2523,6 +2512,9 @@
     <t>chassisdef_stormcrow_SCR-Attwater.YangsThoughts</t>
   </si>
   <si>
+    <t>A common sight in Clan Toumans, the 55 ton Stormcrow is a second generation OmniMech that entered production in 2930. Powered by a 330 rated XL Engine, a combination of Ferro Fibrous and Endo Steel give the OmniMech 23 tons of Pod Space. The Stormcrow Attwater is the personal configuration of Mia Attwater of the Nova Cats. An anti aircraft specialist, her Stormcrow was reconfigured to improve its effectiveness in this role. A pair of LB-5X’s and a pair of LRM-5’s augmented by Artemis IV make up the Attwater’s armament with 6 Jump Jets filling the remaining pod space.</t>
+  </si>
+  <si>
     <t>A common sight in Clan Toumans, the 55 ton Stormcrow is a second generation OmniMech that entered production in 2930. Powered by a 330 rated XL Engine, a combination of Ferro Fibrous and Endo Steel give the OmniMech 23 tons of Pod Space. The Stormcrow Attwater is the personal configuration of Mia Attwater of the Nova Cats. An anti aircraft specialist, her Stormcrow was reconfigured to improve it’s effectiveness in this role. A pair of LB-5X’s and a pair of LRM-5’s augmented by Artemis IV make up the Attwater’s armament with 6 Jump Jets filling the remaining pod space.</t>
   </si>
   <si>
@@ -2535,7 +2527,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Summoner is a highly mobile heavy OmniMech that is commonly used in a wide variety of roles. Barely a second generation OmniMech, the Jade Falcons introduced the Summoner just after becoming the first Clan to win OmniMech technology from Clan Coyote in 2863. The custom configuration of Aiden Pryde used during his first Trial of Position with Clan Jade Falcon in 3030, the ADN features an ER PPC and Large Pulse Laser in the right arm as primary weapons. Backing these up are the standard LRM15 in the Left Torso and a pair of ER Medium Pulse Lasers in the left arm. A single Anti-Missile System in the right torso rounds out the configuration.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Communications&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Улучш. средства связи&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.16&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2560,7 +2552,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Summoner is a highly mobile heavy OmniMech that is commonly used in a wide variety of roles. Barely a second generation OmniMech, the Jade Falcons introduced the Summoner just after becoming the first Clan to win OmniMech technology from Clan Coyote in 2863. The custom configuration of Marthe Pryde used during her Trial of Position with Clan Jade Falcon in 3030, the MT features an ER PPC and LBX10 in the right and left arms as primary weapons. Backing these up are a Streak SRM6 in the Left Torso and an ER Medium Laser in the Center Torso.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Communications&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Улучш. средства связи&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.16&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2579,7 +2571,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Summoner is a highly mobile heavy OmniMech that is commonly used in a wide variety of roles. Barely a second generation OmniMech, the Jade Falcons introduced the Summoner just after becoming the first Clan to win OmniMech technology from Clan Coyote in 2863. A customized variant of the Summoner supposedly piloted by Jade Falcon Star Colonel Aidan Pryde, the Pryde uses an Ultra Autocannon/10 in its left arm, supported by a Ultra Autocannon/5 in the right arm, each with one ton of ammo. The left torso carries an ER small Laser with two Clan Anti Missile Systems and a ton of AMS ammo. A single ER Medium Laser in the right torso rounds out the loadout.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Communications&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Улучш. средства связи&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.16&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2598,7 +2590,7 @@
   </si>
   <si>
     <t xml:space="preserve">The custom config of Star Colonel Tabok of the Fourth Scorpion Cuirassiers, the 'Manul' Hero 'Mech is a ranged energy boat with an ER PPC and ER Large Laser in each arm. Its only other weapon is an ER Small Laser in the left torso. 'Manul' is fitted with AMS and single ton of reloads, the remaining weight devoted to nine extra double heat sinks.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Узкий / Низкий профиль&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.16&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2620,7 +2612,7 @@
   </si>
   <si>
     <t xml:space="preserve">The GRF-2N-X Super Griffin is an evolution of the classic Griffin, a re-design that essentially produced a new BattleMech with even a different tonnage. Using a sixty ton frame, engineers fitted Prototype Improved Jump Jets to the 'Mech to compensate for its reduced speed.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Aerial Assault&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Воздушный штурм&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2648,7 +2640,7 @@
   </si>
   <si>
     <t xml:space="preserve">The WSP-2A-X Super Wasp is an evolution of the classic Wasp, a re-design that essentially produced a new BattleMech with even a different tonnage. Weighing as much as a Commando, the Super Wasp maintained the basic ground speed and jump capability of its inspiration, but also added an engine Supercharger which allowed it to sprint at speeds of up to 120km/h.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Aerial Assault&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Воздушный штурм&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.96&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2676,7 +2668,7 @@
   </si>
   <si>
     <t xml:space="preserve">Piloted by mercenary Jose Magellan during the fall of the Star League, this Thug variant replaces the standard engine with an extralight model. The PPCs are replaced by ER Large Lasers. In the space freed by the XL Engine, Magellan installed three more SRM-6 launchers, for a total of five. The cockpit adds a Command Console to allow a Rim Worlds commander to see the entire battlefield. Four jump jets allow the Thug Jose to cover 120 meters at a time. Finally, a Null Signature System interfered with SLDF targeting systems.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Accurate Weapon - Energy&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Точное оружие - Energy&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.19&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2698,7 +2690,7 @@
   </si>
   <si>
     <t xml:space="preserve">A custom Thug piloted by ex-Com Guard and Broadsword Legion CO Kari Marita, the THG-11Em swaps the standard PPCs for Clantech ER PPCs, helping to free up weight for a C3i unit.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Accurate Weapon - Energy&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Точное оружие - Energy&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.17&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2723,7 +2715,7 @@
   </si>
   <si>
     <t xml:space="preserve">The personal 'Mech of Wild Geese member Major Sandy Reich, the ex-Com Guard's Thug has been retrofitted with Clan-spec replacement weaponry, with Clan ER PPCs and Streak SRM-6s fitting neatly into the old locations. Four jump jets are included to increase mobility.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Accurate Weapon - Energy&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Точное оружие - Energy&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.19&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2745,7 +2737,7 @@
   </si>
   <si>
     <t xml:space="preserve">The personal 'Mech of Bremond DMM Commander Leftenant-General Mary Tallman during the DCMS's Third Succession War invasion of Galtor III. She had the 'Mech stripped of everything save the Large Laser, and installed a brace of 4 Medium Lasers in each torso. An additional 8 Heat Sinks were added.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Multi Trac&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Многоцелевой залп&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.14&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2761,9 +2753,7 @@
     <t>chassisdef_thunderbolt_TDR-5S-T_Tallman.YangsThoughts</t>
   </si>
   <si>
-    <t xml:space="preserve">The personal 'Mech of Bremond DMM Commander Leftenant-General Mary Tallman during the DCMS's Third Succession War invasion of Galtor III. She had the 'Mech stripped of everything save the Large Laser, and installed a brace of 4 Medium Lasers in each torso. An additional 8 Heat Sinks were added.
-The Bremond DMM was once the home for criminals and thugs, but Mary Tallman made it her mission to clean up the unit, and she succeeded beyond anyone's hopes. The unit became well-regarded by the time they participated in the campaign for Galtor III.
-Mary partipated directly during at least two operations on Galtor III. The first was the battle for a Star League Depot on 1-2 September 3025 and the second time on 27th September 3025 on the plains northwest of New Derry. Both battles ended in victory for the Bremond DMM and combined Federated Suns forces and even though she was offered a promotion, she chose to remain in command of the Bremond DMM and remained the 'cream of the crop in the Draconis March Militia.</t>
+    <t>The personal 'Mech of Bremond DMM Commander Leftenant-General Mary Tallman during the DCMS's Third Succession War invasion of Galtor III. She had the 'Mech stripped of everything save the Large Laser, and installed a brace of 4 Medium Lasers in each torso. An additional 8 Heat Sinks were added.</t>
   </si>
   <si>
     <t>chassisdef_timber_wolf_TW-BH.Description.Details</t>
@@ -2775,7 +2765,7 @@
   </si>
   <si>
     <t xml:space="preserve">The first custom configuration used by the infamous Bounty Hunter of the time of the initial Clan Invasion, it mounted a Large Pulse Laser and a Medium Pulse Laser in each arm. It also had a Medium Pulse Laser in both the left and right torso with a Clan Light TAG in the center torso. A Light Active Probe, ECM suite, and a Targeting Computer provided stealth and increased accuracy. 
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Medium&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Улучш. наведение - Medium&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.17&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2800,7 +2790,7 @@
   </si>
   <si>
     <t xml:space="preserve">Captured by Conner Sinclair of the Damocles Commandos from the Smoke Jaguars, this variant seems to be a mix of B and C, mounting twin ER large lasers in the right arm, a Gauss Rifle in the left, and finally a Streak SRM rack in each torso.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Medium&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Улучш. наведение - Medium&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.17&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2825,7 +2815,7 @@
   </si>
   <si>
     <t xml:space="preserve">A non-standard alternate configuration of the Timber Wolf, this configuration was famously used by Star Colonel Aidan Pryde. The primary long range weapons are a pair of ER Large Lasers which are backed up by a pair of LRM-20s for long range combat. For close combat, two ER Medium Lasers are carried as well as an ER Small Laser. The Pryde Configuration also mounts four jump jets making it highly maneuverable.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Medium&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Улучш. наведение - Medium&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.17&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2847,7 +2837,7 @@
   </si>
   <si>
     <t xml:space="preserve">The personal mech of Vladimir Ward. A modified Prime variant, this version has swapped the medium pulse laser for twin Extended Range mediums, one in each side torso.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Medium&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Улучш. наведение - Medium&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.17&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2894,13 +2884,13 @@
     <t>chassisdef_Valkyrie_VLK-LAM.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">The Valkyrie is a heavily armored mobile light mech with long range support capability
+    <t xml:space="preserve">A nice heavily armored scout, not too bad.  Probably best to keep it at range however, out of harm's range.  But an easy mech to find parts for and keep running.
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Land Air Mech&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.01&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">The Valkyrie is a heavily armored mobile light mech with long range support capability
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Land Air Mech&lt;/color&gt;&lt;/b&gt;
+    <t xml:space="preserve">A nice heavily armored scout, not too bad. Probably best to keep it at range however, out of harm's range. But an easy mech to find parts for and keep running.
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Аэромех&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.01&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2931,7 +2921,7 @@
   </si>
   <si>
     <t xml:space="preserve">the Vanguard mounts an LB 5-X AC in each side torso alongside a left-torso mounted ER PPC, for close range support a trio of Streak SRM-4 are carried in the arms. Two tons each of LBX and Streak ammunition provide good field endurance.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Узкий / Низкий профиль&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.16&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2953,7 +2943,7 @@
   </si>
   <si>
     <t xml:space="preserve">The personal command 'Mech of General Rudolph Chapman, this 80 ton Victor is a heavily modified machine. Provided with some of the latest technology by NAIS, it is a walking testbed of the new and recovered technologies emerging from the Inner Sphere's intellectual hub
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Прочный&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.19&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -2981,7 +2971,7 @@
   </si>
   <si>
     <t xml:space="preserve">The custom Victor used by Tai-sho Li Dok To, this variant removed all the standard weapons and replaced them with a single LRM-15 mounted in the left torso and ten Medium Lasers carried in the 'Mech's right arm, greatly reducing ammo dependency.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Прочный&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.19&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -3009,7 +2999,7 @@
   </si>
   <si>
     <t xml:space="preserve">Used by the 5th Benjamin Regulars commander on Royal during the War of Davion Succession, this Victor-9B variant removes the AC/20 and replaces it with an AC/10 and two more tons of ammo. The Medium Lasers have been removed and replaced with three Medium Pulse Lasers. The Victor variant is equipped with ten Double Heat sinks, and the remaining tonnage has been devoted to additional armor.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Прочный&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.19&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -3031,7 +3021,7 @@
   </si>
   <si>
     <t xml:space="preserve">The VTR-9SI is a prototype design, first piloted by Col. Alexander Knight. A combination of the 9K Endo-Steel structure with the 9S AC/20, replacing the SRM-launcer with even more lasers. The addition of a Guardian ECM system and Triple-Strength Myomer further enhanced the combat capabilites.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Прочный&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.19&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -3053,7 +3043,7 @@
   </si>
   <si>
     <t xml:space="preserve">The 'Dragon Slayer' mounts a 330 rated XL Engine, Endo Steel and Double Heat Sinks to support a weapons array consisting of a Gauss Rifle and PPC in its right and left arms respectively and twin Medium Pulse Lasers in the right torso and SRM-6 in the left. 
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Прочный&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.19&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -3075,7 +3065,7 @@
   </si>
   <si>
     <t xml:space="preserve">Made in 3020, this customized Vindicator used by Major Choung Vong, in the Third Succession War, moved the head-mounted medium laser to the right arm, simply making the cockpit roomier for its brutally effective, but rather rotund pilot. It is by all accounts the same as the original 1R, retaining all its capabilities.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Прочный&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.08&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -3091,8 +3081,7 @@
     <t>chassisdef_vindicator_VND-1R_Vong.YangsThoughts</t>
   </si>
   <si>
-    <t xml:space="preserve">Made in 3020, this customized Vindicator used by Major Choung Vong in the Third Succession War moved the head-mounted medium laser to the right arm, simply making the cockpit roomier for its brutally effective, but rather rotund pilot. It is by all accounts the same as the original 1R, retaining all its capabilities.
-Between her outspokenness and her 125 kg (at least) weight on a 1.85-meter frame, superiors and subordinates are always aware of Vong. While some accuse her of being a bully, the bottom line is that Major Vong gets things done.</t>
+    <t>Made in 3020, this customized Vindicator used by Major Choung Vong in the Third Succession War moved the head-mounted medium laser to the right arm, simply making the cockpit roomier for its brutally effective, but rather rotund pilot. It is by all accounts the same as the original 1R, retaining all its capabilities.</t>
   </si>
   <si>
     <t>chassisdef_viper_VPR-M-R.Description.Details</t>
@@ -3104,7 +3093,7 @@
   </si>
   <si>
     <t xml:space="preserve">Introduced in 2940, the Viper is a 40 ton OmniMech that emphasises speed and armour, with only 8.5 tons of podspace available for weapons. A 320 rated XL Engine powers the Viper and 8 Jump Jets are hardwired into the chassis, further improving the mobility. The Viper M-R (Medusa) is armed with a 6 ER Small Lasers and a Streak SRM-6. An AMS is mounted to counter incoming missiles. 
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Улучш. наведение - Long&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.08&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -3129,7 +3118,7 @@
   </si>
   <si>
     <t xml:space="preserve">The original Warhammer was designed as an assault BattleMech. However, it had been superseded by later and heavier 'Mech designs, though it remained a powerful weapons platform. The Clans wisely maintained and built on this solid frame a real assault 'Mech, the Warhammer IIC. The IIC-BL is a custom variant of the IIC-1 replaces the Medium Pulse Lasers with a pair of ER Medium lasers and removes the original SRM-6 for an ATM-6 with 3 tons of ammo. The IIC-BL is otherwise identical to the IIC-1 with the exception of a trio of Jump Jets added to the Torsos.\n\n
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Integrated Searchlight&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Встроенный прожектор&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.25&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -3154,7 +3143,7 @@
   </si>
   <si>
     <t xml:space="preserve">The original Warhammer was designed as an assault BattleMech. However, it had been superseded by later and heavier 'Mech designs, though it remained a powerful weapons platform. The Clans wisely maintained and built on this solid frame a real assault 'Mech, the Warhammer IIC. The IIC-ML is a custom variant of the IIC-1 replaces 3 of the Medium Pulse Lasers with a pair of HMG’s and adds a second SRM-6.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Integrated Searchlight&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Встроенный прожектор&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.25&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -3176,7 +3165,7 @@
   </si>
   <si>
     <t xml:space="preserve">A seemingly average Warhammer, the 'Widows Whammy', was rumoured to be the configuration piloted by the Black Widow Natasha Kerensky herself.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Cooling Jacket - PPC&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Улучшенное охлаждение - PPC&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.19&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -3198,7 +3187,7 @@
   </si>
   <si>
     <t xml:space="preserve">The preferred configuration of the Black Widow Natasha Kerensky, the Widowmaker can do a great deal of damage at any range. For long range combat, an ER PPC backed up by a Large Pulse Laser mounted in each arm. For close combat, the Widowmaker carries three ER Medium Lasers, an ER Small Laser, and an Ultra Autocannon/20.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Улучш. наведение - Long&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.24&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -3217,7 +3206,7 @@
   </si>
   <si>
     <t xml:space="preserve">Phelan Kell and his Wolfhound, nicknamed Grinner, were captured by the forces of Clan Wolf during Operation Revival. When Phelan was inducted into the Wolf Clan as a Warrior, Khan Ulric Kerensky ordered his 'Mech be upgraded using Clan technology.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Accurate Weapon - Energy&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Точное оружие - Energy&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 0.98&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -3245,7 +3234,7 @@
   </si>
   <si>
     <t xml:space="preserve">Yen-Lo-Wang, named after the Chinese god of death, is a famous individual BattleMech. Its serial number is FS1010-031X. Yen-Lo-Wang has been modified and customized into a variety of different configurations over the years. 
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Yen Lo Wang&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Йен-ло-Ванг&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.03&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -3276,7 +3265,7 @@
   </si>
   <si>
     <t xml:space="preserve">A second, later configuration of the Yen-Lo-Wang. Commonly referred to as the CN9-YLW2, it is still based upon a CN9-A chassis but uses more modern equipment. Keeping the speed the same, the engine was changed to an extra-light version. The AC/10 has been upgraded to a Gauss Rifle with two tons of ammunition. Three medium pulse lasers, two in the left arm and another rear-mounted in the center torso, replace the old standard ones. A left arm Hatchet is paired with Triple-Strength Myomer.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Yen Lo Wang&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Йен-ло-Ванг&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.05&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -3317,12 +3306,7 @@
   </si>
   <si>
     <t xml:space="preserve">A customized variant of the stock AWS-9M model that was utilized by Adam Steiner during the 1st Somerset Strikers' liberation of Somerset in the midst of the Clan Invasion. 
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Command Mech&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.14&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A customized variant of the stock AWS-9M model that was utilized by Adam Steiner during the 1st Somerset Strikers' liberation of Somerset in the midst of the Clan Invasion. 
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Command Mech&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Командирский мех&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.14&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -3341,13 +3325,8 @@
     <t>mechdef_battlemaster_BLR-1SH_hans.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">A Prototype that was modified For Hanse Davions personal use.  
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Command Mech&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.15&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">A Prototype that was modified For Hanse Davions personal use. 
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Command Mech&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Командирский мех&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.15&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -3358,12 +3337,7 @@
   </si>
   <si>
     <t xml:space="preserve">While feared by the Inner Sphere, the Supernova design was born out of necessity in an attempt to address ammunition shortages by changing the original King Crab design to an all-energy loadout. The Boiler is a customized Supernova variant that seeks to re-engineer the Supernova back to the original King Crab loadout using Clan technology, essentially making the Boiler a “King Crab IIC”. It mounts an Ultra AC/20 in each arm supported by a Large Pulse Laser in the right torso and an LRM-15 rack in the left. As it was built upon the frame of the standard Supernova, it retains the jump jets but mounts only seventeen double heat sinks. Like its progenitor, the Boiler lacks field endurance, carrying only two tons of Ultra Autocannon rounds and one ton of LRM reloads.
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.25&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">While feared by the Inner Sphere, the Supernova design was born out of necessity in an attempt to address ammunition shortages by changing the original King Crab design to an all-energy loadout. The Boiler is a customized Supernova variant that seeks to re-engineer the Supernova back to the original King Crab loadout using Clan technology, essentially making the Boiler a “King Crab IIC”. It mounts an Ultra AC/20 in each arm supported by a Large Pulse Laser in the right torso and an LRM-15 rack in the left. As it was built upon the frame of the standard Supernova, it retains the jump jets but mounts only seventeen double heat sinks. Like its progenitor, the Boiler lacks field endurance, carrying only two tons of Ultra Autocannon rounds and one ton of LRM reloads.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Улучш. наведение - Long&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.25&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -3371,12 +3345,7 @@
   </si>
   <si>
     <t xml:space="preserve">Duncan Fisher once said, the Butcher was the natural product of Solaris' sweaty and testosterone driven battles. Forged in the heat of battle and adorned with the remains of other Gladiator's Mechs.
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Rugged&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.09&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duncan Fisher once said, the Butcher was the natural product of Solaris' sweaty and testosterone driven battles. Forged in the heat of battle and adorned with the remains of other Gladiator's Mechs.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Прочный&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.09&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -3410,16 +3379,6 @@
     <t>mechdef_dire_wolf_DW-HK.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">The Hohiro configuration of the Dire Wolf is used by Hohiro Kurita and has a mixed long and short range weapons profile. For long range hitting power, an ER PPC and a Gauss Rifle provide overwhelming punch. To engage enemies at long to medium ranges, three Large Pulse Lasers are carried. One ER Small Laser and one Streak SRM-6 round out this configuration with some short range punch. &lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.24&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Hohiro configuration of the Dire Wolf is used by Hohiro Kurita and has a mixed long and short range weapons profile. For long range hitting power, an ER PPC and a Gauss Rifle provide overwhelming punch. To engage enemies at long to medium ranges, three Large Pulse Lasers are carried. One ER Small Laser and one Streak SRM-6 round out this configuration with some short range punch. &lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.24&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>mechdef_direstar_DS-Prime.Description.Details</t>
   </si>
   <si>
@@ -3442,12 +3401,7 @@
   </si>
   <si>
     <t xml:space="preserve">Designed for the SLDF in the wake of the Reunification War, the Falcon is a Scout Mech hunter and an anti-infantry Mech. A 30 ton Light Mech, the Falcon is powered by a 180 rated Fusion Core. The Falcon FLC-4Nb-Saho is armed with a Medium Laser and a Large Pulse Laser. 
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.06&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Designed for the SLDF in the wake of the Reunification War, the Falcon is a Scout Mech hunter and an anti-infantry Mech. A 30 ton Light Mech, the Falcon is powered by a 180 rated Fusion Core. The Falcon FLC-4Nb-Saho is armed with a Medium Laser and a Large Pulse Laser. 
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Узкий / Низкий профиль&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.06&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -3457,16 +3411,6 @@
     <t>mechdef_flashman_FLS-8K_Kalasa.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">The Flashman is an underrated heavy 'Mech, commonly called a "flashbulb" by MechWarriors for its heavy-energy configuration. The Flashman, which was first introduced in 2701, is a 'Mech that is capable of engaging an enemy for extended periods of time with little re-supply. The primary weapons on the Flashman FLS-8K are three Large Lasers mounted in the right arm, left arm, and center torso. These are backed up by five Medium Lasers, two mounted in either arm coaxial to the large lasers, two in the left torso and one in the right. The Flashman also carries an Anti-Missile System with one ton of ammo in the right torso to defend against missile attacks, and a Flamer in the head, to deter infantry attacks. The use of a Faust/Shinji AT/TS targeting-tracking system gives the Flashman a level of accuracy few can match, while fifteen double heat sinks give it an effective heat management system. The 'Mech is also notable for using an extralight engine which makes it fast for its size, though not at the expense of protection thanks to thirteen and a half tons of armor.
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Rugged&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.2&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Flashman is an underrated heavy 'Mech, commonly called a "flashbulb" by MechWarriors for its heavy-energy configuration. The Flashman, which was first introduced in 2701, is a 'Mech that is capable of engaging an enemy for extended periods of time with little re-supply. The primary weapons on the Flashman FLS-8K are three Large Lasers mounted in the right arm, left arm, and center torso. These are backed up by five Medium Lasers, two mounted in either arm coaxial to the large lasers, two in the left torso and one in the right. The Flashman also carries an Anti-Missile System with one ton of ammo in the right torso to defend against missile attacks, and a Flamer in the head, to deter infantry attacks. The use of a Faust/Shinji AT/TS targeting-tracking system gives the Flashman a level of accuracy few can match, while fifteen double heat sinks give it an effective heat management system. The 'Mech is also notable for using an extralight engine which makes it fast for its size, though not at the expense of protection thanks to thirteen and a half tons of armor.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.2&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>mechdef_ghillie_ENF-GH.Description.Details</t>
   </si>
   <si>
@@ -3510,28 +3454,13 @@
   </si>
   <si>
     <t xml:space="preserve">Mech Daniel received was a bridging design between the early field-test HTM-26T and the later production HTM-27T. Dropping two tons of armor and outfitted with a bulkier and less refined Endo-Steel chassis, enough weight was saved to mount a pair of experimental Luthien Armor Works developed LB 10-X AC prototypes in it arms and a pair of Telos SRM-4 launchers in its chest.. 
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Way of the Samurai&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.14&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mech Daniel received was a bridging design between the early field-test HTM-26T and the later production HTM-27T. Dropping two tons of armor and outfitted with a bulkier and less refined Endo-Steel chassis, enough weight was saved to mount a pair of experimental Luthien Armor Works developed LB 10-X AC prototypes in it arms and a pair of Telos SRM-4 launchers in its chest.. 
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Way of the Samurai&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Путь самурая&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.14&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t>mechdef_hatamoto-chi_HTM-SAM.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">Custom Hatamoto-Chi With Katana's in both arms, 4 Medium Lasers and 4 SRM6 plus JumpJets.
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Way of the Samurai&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.2&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Custom Hatamoto-Chi With Katana's in both arms, 4 Medium Lasers and 4 SRM6 plus JumpJets.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Way of the Samurai&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.2&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>mechdef_heavy_metal_HGN-HM.Description.Details</t>
   </si>
   <si>
@@ -3542,12 +3471,7 @@
   </si>
   <si>
     <t xml:space="preserve">Classified Variant.
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Easy to Pilot&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.14&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Classified Variant.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Easy to Pilot&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Прост в управлении&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.14&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -3573,11 +3497,6 @@
   </si>
   <si>
     <t>mechdef_incubus_INC-SA.Description.Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This customized 'Mech is equipped with 270 XL engine, two ER Micro Lasers and Heavy Machine Guns in both torsos, Streak SRM 4 with it's one ton of ammo in central torso and two Streak SRM 2's in the right arm, along with 10 Double Heat Sinks to cope with the heat, half ton of HMG ammo in left torso and one full ton of HMG and Streak SRM 4 ammo bins in right torso.
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Accurate Weapon - Laser&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.1&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">This customized 'Mech is equipped with 270 XL engine, two ER Micro Lasers and Heavy Machine Guns in both torsos, Streak SRM 4 with it's one ton of ammo in central torso and two Streak SRM 2's in the right arm, along with 10 Double Heat Sinks to cope with the heat, half ton of HMG ammo in left torso and one full ton of HMG and Streak SRM 4 ammo bins in right torso.
@@ -3601,12 +3520,7 @@
   </si>
   <si>
     <t xml:space="preserve">This mech was salvaged in the later stages of the wars against the clans by a innately lucky mercenary who managed to pilfer it without his employers catching wind of his new found mech. He promptly emblazoned a Large orange Corgi, a terran creature on the side of the mech and fashioned on as many of his horded parts as the poor mech engineers could jury rg on to the frame to create this monstrosity with no thought for if they SHOULD do it.
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.06&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This mech was salvaged in the later stages of the wars against the clans by a innately lucky mercenary who managed to pilfer it without his employers catching wind of his new found mech. He promptly emblazoned a Large orange Corgi, a terran creature on the side of the mech and fashioned on as many of his horded parts as the poor mech engineers could jury rg on to the frame to create this monstrosity with no thought for if they SHOULD do it.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Narrow/Low Profile&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Узкий / Низкий профиль&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.06&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -3628,11 +3542,6 @@
     <t>mechdef_mad_dog_MDD-RV.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">Piloted by an ex-Smoke Jaguar turned Solaris VII MechWarrior known only as Garrett, the 'Revenant' is a long-range specialist mounting a massive 60 Long range Missile tubes in its side torsos supported by four Medium Pulse Lasers in the arms and center torso. 
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Improved Targeting - Medium&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.14&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>mechdef_marauder_ii_MAD-AL.Description.Details</t>
   </si>
   <si>
@@ -3649,12 +3558,7 @@
   </si>
   <si>
     <t xml:space="preserve">Perhaps one of the best-known 'Mechs in existence, the Marauder makes a worthy opponent on the battlefield. It's no slouch at midrange combat, but experienced MechWarriors will hang back at longer ranges to let its PPCs and AC/5 punish targets from afar.
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Hyper-Extending Actuactors&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.11&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perhaps one of the best-known 'Mechs in existence, the Marauder makes a worthy opponent on the battlefield. It's no slouch at midrange combat, but experienced MechWarriors will hang back at longer ranges to let its PPCs and AC/5 punish targets from afar.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Hyper-Extending Actuactors&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Выдвижные руки&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.11&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -3716,12 +3620,7 @@
   </si>
   <si>
     <t xml:space="preserve">Reportedly piloted by Star Colonel Jaela Ward, the Orion IIC Hero 'Mech retains the right torso mounted Gauss Rifle unchanged but swaps the LRM rack for an ER PPC, upgrades the SRM-4 rack with Artemis IV FCS and downgrades the arm lasers to ER Medium Lasers. Carrying three tons of Gauss rounds and two of SRM reloads, the weight saved allows the mounting of two extra double heat sinks and MASC. 
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.16&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reportedly piloted by Star Colonel Jaela Ward, the Orion IIC Hero 'Mech retains the right torso mounted Gauss Rifle unchanged but swaps the LRM rack for an ER PPC, upgrades the SRM-4 rack with Artemis IV FCS and downgrades the arm lasers to ER Medium Lasers. Carrying three tons of Gauss rounds and two of SRM reloads, the weight saved allows the mounting of two extra double heat sinks and MASC. 
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Anti-Air Targeting&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: ПВО&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.16&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -3788,16 +3687,6 @@
     <t>mechdef_Valkyrie_VLK-LAM.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">A nice heavily armored scout, not too bad.  Probably best to keep it at range however, out of harm's range.  But an easy mech to find parts for and keep running.
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Land Air Mech&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.01&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A nice heavily armored scout, not too bad. Probably best to keep it at range however, out of harm's range. But an easy mech to find parts for and keep running.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Land Air Mech&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.01&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>mechdef_vanguard_SNS-VG.Description.Details</t>
   </si>
   <si>
@@ -3817,12 +3706,7 @@
   </si>
   <si>
     <t xml:space="preserve">The 'Dragon Slayer' mounts a 330 rated XL Engine, Endo Steel and Double Heat Sinks to support a weapons array consisting of a Gauss Rifle and PPC in its right and left arms respectively and twin Medium Pulse Lasers in the right torso and SRM-6 in the left.
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Rugged&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.19&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The 'Dragon Slayer' mounts a 330 rated XL Engine, Endo Steel and Double Heat Sinks to support a weapons array consisting of a Gauss Rifle and PPC in its right and left arms respectively and twin Medium Pulse Lasers in the right torso and SRM-6 in the left.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Rugged&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Прочный&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.19&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -3839,12 +3723,7 @@
   </si>
   <si>
     <t xml:space="preserve">The original Warhammer was designed as an assault BattleMech. However, it had been superseded by later and heavier 'Mech designs, though it remained a powerful weapons platform. The Clans wisely maintained and built on this solid frame a real assault 'Mech, the Warhammer IIC. The IIC-ML is a custom variant of the IIC-1 replaces 3 of the Medium Pulse Lasers with a pair of HMG’s and adds a second SRM-6. 
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Integrated Searchlight&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.25&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The original Warhammer was designed as an assault BattleMech. However, it had been superseded by later and heavier 'Mech designs, though it remained a powerful weapons platform. The Clans wisely maintained and built on this solid frame a real assault 'Mech, the Warhammer IIC. The IIC-ML is a custom variant of the IIC-1 replaces 3 of the Medium Pulse Lasers with a pair of HMG’s and adds a second SRM-6. 
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Integrated Searchlight&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Встроенный прожектор&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.25&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -3855,12 +3734,7 @@
   </si>
   <si>
     <t xml:space="preserve">The preferred configuration of the Black Widow Natasha Kerensky, the Widowmaker can do a great deal of damage at any range. For long range combat, an ER PPC backed up by a Large Pulse Laser mounted in each arm. For close combat, the Widowmaker carries three ER Medium Lasers, an ER Small Laser, and an Ultra Autocannon/20. &lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.24&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The preferred configuration of the Black Widow Natasha Kerensky, the Widowmaker can do a great deal of damage at any range. For long range combat, an ER PPC backed up by a Large Pulse Laser mounted in each arm. For close combat, the Widowmaker carries three ER Medium Lasers, an ER Small Laser, and an Ultra Autocannon/20. &lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Improved Targeting - Long&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Улучш. наведение - Long&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.24&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -3871,12 +3745,7 @@
   </si>
   <si>
     <t xml:space="preserve">Yen-Lo-Wang, named after the Chinese god of death, is a famous individual BattleMech. Its serial number is FS1010-031X. Yen-Lo-Wang has been modified and customized into a variety of different configurations over the years.
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Yen Lo Wang&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.03&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yen-Lo-Wang, named after the Chinese god of death, is a famous individual BattleMech. Its serial number is FS1010-031X. Yen-Lo-Wang has been modified and customized into a variety of different configurations over the years.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Yen Lo Wang&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Йен-ло-Ванг&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.03&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -3892,7 +3761,7 @@
   </si>
   <si>
     <t xml:space="preserve">An early FedSuns BattleMech, the 75 ton Hammerhands debuted in 2475 and served as one of the progenitor designs that would influence the iconic Warhammer. Powered by a 225 rated Fusion Core, the customised Hammerhands HMH-3D used by Lorn Kessem is armed with a pair of LB-10X’s, with a pair of Medium Lasers and an SRM-6 for close range combat.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Barrel Fist&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Руки-базуки&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.16&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -3908,13 +3777,13 @@
     <t>chassisdef_zeus_ZEU-LEO_Leonidas.Description.Details</t>
   </si>
   <si>
-    <t xml:space="preserve">The Zeus was first built by the Lyran Commonwealth in 2787, just as the First Succession War began. Built at the request of Lyran Commonwealth Armed Forces commanders for a new light-assault 'Mech, the Zeus is fast enough to keep up with most heavy 'Mechs, and is equally capable of defeating them. The personal 'Mech of Hauptmann-General Leonidas Brannock, commander of the 4th Skye Guards during their assault on Glengarry, the Zeus Leonidas was based on the ZEU-9S. It carried an Artemis IV enhanced LRM-20 and a Gauss Rifle in place of the PPC and LRM-15.
+    <t xml:space="preserve">The Zeus was first built by the Lyran Commonwealth in 2787, just as the First Succession War began. Built at the request of Lyran Commonwealth Armed Forces commanders for a new light-assault 'Mech, the Zeus is fast enough to keep up with most heavy 'Mechs, and is equally capable of defeating them. The personal 'Mech of Hauptmann-General Leonidas Brannock, commander of the 4th Skye Guards during their assault on Glengarry, the Zeus Leonidas was based on the ZEU-9S. It carried an Artemis IV enhanced LRM-20 and a Gauss Rifle in place of the PPC and LRM-15. The rest of the weapons remained the same. 
 &lt;b&gt;&lt;color=#e62e00&gt;Quirk: Barrel Fist&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.17&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">The Zeus was first built by the Lyran Commonwealth in 2787, just as the First Succession War began. Built at the request of Lyran Commonwealth Armed Forces commanders for a new light-assault 'Mech, the Zeus is fast enough to keep up with most heavy 'Mechs, and is equally capable of defeating them. The personal 'Mech of Hauptmann-General Leonidas Brannock, commander of the 4th Skye Guards during their assault on Glengarry, the Zeus Leonidas was based on the ZEU-9S. It carried an Artemis IV enhanced LRM-20 and a Gauss Rifle in place of the PPC and LRM-15.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Barrel Fist&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Руки-базуки&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.17&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -3936,7 +3805,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Zeus was first built by the Lyran Commonwealth in 2787, just as the First Succession War began. Built at the request of Lyran Commonwealth Armed Forces commanders for a new light-assault 'Mech, the Zeus is fast enough to keep up with most heavy 'Mechs, and is equally capable of defeating them. The Shokomish is the custom variant of the 6S designed to emulate the capabilities of the MechWarrior known as Sealth. Mounting the stock AC/5 and Medium Laser, this variant also features a PPC, twin SRM6 , and twin LRM10 launchers. Included on the Shokomish is a MASC in order to allow nearly any MechWarrior to emulate the famed Sealth, if not replicate him.
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Barrel Fist&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Руки-базуки&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.17&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -3956,12 +3825,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Zeus was first built by the Lyran Commonwealth in 2787, just as the First Succession War began. Built at the request of Lyran Commonwealth Armed Forces commanders for a new light-assault 'Mech, the Zeus is fast enough to keep up with most heavy 'Mechs, and is equally capable of defeating them. The personal 'Mech of Hauptmann-General Leonidas Brannock, commander of the 4th Skye Guards during their assault on Glengarry, the Zeus Leonidas was based on the ZEU-9S. It carried an Artemis IV enhanced LRM-20 and a Gauss Rifle in place of the PPC and LRM-15. The rest of the weapons remained the same. 
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Barrel Fist&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.17&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Zeus was first built by the Lyran Commonwealth in 2787, just as the First Succession War began. Built at the request of Lyran Commonwealth Armed Forces commanders for a new light-assault 'Mech, the Zeus is fast enough to keep up with most heavy 'Mechs, and is equally capable of defeating them. The personal 'Mech of Hauptmann-General Leonidas Brannock, commander of the 4th Skye Guards during their assault on Glengarry, the Zeus Leonidas was based on the ZEU-9S. It carried an Artemis IV enhanced LRM-20 and a Gauss Rifle in place of the PPC and LRM-15. The rest of the weapons remained the same. 
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Barrel Fist&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Руки-базуки&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.17&lt;/color&gt;&lt;/b&gt;</t>
   </si>
   <si>
@@ -3969,12 +3833,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Zeus was first built by the Lyran Commonwealth in 2787, just as the First Succession War began. Built at the request of Lyran Commonwealth Armed Forces commanders for a new light-assault 'Mech, the Zeus is fast enough to keep up with most heavy 'Mechs, and is equally capable of defeating them. The Shokomish is the custom variant of the 6S designed to emulate the capabilities of the MechWarrior known as Sealth. Mounting the stock AC/5 and Medium Laser, this variant also features a PPC, twin SRM6 , and twin LRM10 launchers. Included on the Shokomish is a MASC in order to allow nearly any MechWarrior to emulate the famed Sealth, if not replicate him. 
-&lt;b&gt;&lt;color=#e62e00&gt;Quirk: Barrel Fist&lt;/color&gt;&lt;/b&gt;
-&lt;b&gt;&lt;color=#e62e00&gt;Drop Cost Multiplier: 1.17&lt;/color&gt;&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Zeus was first built by the Lyran Commonwealth in 2787, just as the First Succession War began. Built at the request of Lyran Commonwealth Armed Forces commanders for a new light-assault 'Mech, the Zeus is fast enough to keep up with most heavy 'Mechs, and is equally capable of defeating them. The Shokomish is the custom variant of the 6S designed to emulate the capabilities of the MechWarrior known as Sealth. Mounting the stock AC/5 and Medium Laser, this variant also features a PPC, twin SRM6 , and twin LRM10 launchers. Included on the Shokomish is a MASC in order to allow nearly any MechWarrior to emulate the famed Sealth, if not replicate him. 
-&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Barrel Fist&lt;/color&gt;&lt;/b&gt;
+&lt;b&gt;&lt;color=#e62e00&gt;Склонность: Руки-базуки&lt;/color&gt;&lt;/b&gt;
 &lt;b&gt;&lt;color=#e62e00&gt;Множитель стоимости высадки: 1.17&lt;/color&gt;&lt;/b&gt;</t>
   </si>
 </sst>
@@ -4311,13 +4170,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E544"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A522" workbookViewId="0">
-      <selection activeCell="C538" sqref="C538"/>
+    <sheetView tabSelected="1" topLeftCell="A511" workbookViewId="0">
+      <selection activeCell="C524" sqref="C524"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="80.5703125" customWidth="1" style="2"/>
+    <col min="4" max="5" width="9.140625" customWidth="1" style="2"/>
+    <col min="6" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4732,7 +4593,7 @@
       <c r="A25" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -4987,7 +4848,7 @@
       <c r="A40" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -5786,7 +5647,7 @@
       <c r="A87" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="3" t="s">
         <v>220</v>
       </c>
       <c r="C87" s="4" t="s">
@@ -6245,7 +6106,7 @@
       <c r="A114" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="3" t="s">
         <v>281</v>
       </c>
       <c r="C114" s="4" t="s">
@@ -6874,7 +6735,7 @@
       <c r="A151" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="3" t="s">
         <v>339</v>
       </c>
       <c r="C151" s="4" t="s">
@@ -7027,7 +6888,7 @@
       <c r="A160" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="3" t="s">
         <v>358</v>
       </c>
       <c r="C160" s="4" t="s">
@@ -7367,11 +7228,11 @@
       <c r="A180" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B180" s="3" t="s">
         <v>405</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>3</v>
@@ -7382,13 +7243,13 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="C181" s="4" t="s">
         <v>408</v>
-      </c>
-      <c r="C181" s="4" t="s">
-        <v>409</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>3</v>
@@ -7399,13 +7260,13 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="C182" s="4" t="s">
         <v>411</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>412</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>3</v>
@@ -7416,13 +7277,13 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>414</v>
-      </c>
       <c r="C183" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>3</v>
@@ -7433,13 +7294,13 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="C184" s="4" t="s">
         <v>416</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>417</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>3</v>
@@ -7450,13 +7311,13 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="C185" s="4" t="s">
         <v>419</v>
-      </c>
-      <c r="C185" s="4" t="s">
-        <v>420</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>3</v>
@@ -7467,13 +7328,13 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="C186" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="C186" s="4" t="s">
-        <v>423</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>3</v>
@@ -7484,13 +7345,13 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="C187" s="4" t="s">
         <v>425</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>426</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>3</v>
@@ -7501,13 +7362,13 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="C188" s="4" t="s">
         <v>428</v>
-      </c>
-      <c r="C188" s="4" t="s">
-        <v>429</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>3</v>
@@ -7518,13 +7379,13 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>431</v>
-      </c>
       <c r="C189" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>3</v>
@@ -7535,13 +7396,13 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="C190" s="4" t="s">
         <v>433</v>
-      </c>
-      <c r="C190" s="4" t="s">
-        <v>434</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>3</v>
@@ -7552,13 +7413,13 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C191" s="4" t="s">
         <v>428</v>
-      </c>
-      <c r="C191" s="4" t="s">
-        <v>429</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>3</v>
@@ -7569,13 +7430,13 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>437</v>
-      </c>
       <c r="C192" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>3</v>
@@ -7586,13 +7447,13 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="C193" s="4" t="s">
         <v>439</v>
-      </c>
-      <c r="C193" s="4" t="s">
-        <v>440</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>3</v>
@@ -7603,7 +7464,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>369</v>
@@ -7620,13 +7481,13 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>443</v>
-      </c>
       <c r="C195" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>3</v>
@@ -7637,13 +7498,13 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="C196" s="4" t="s">
         <v>445</v>
-      </c>
-      <c r="C196" s="4" t="s">
-        <v>446</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>3</v>
@@ -7654,7 +7515,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>37</v>
@@ -7671,13 +7532,13 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>449</v>
-      </c>
       <c r="C198" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>3</v>
@@ -7688,13 +7549,13 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B199" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="C199" s="4" t="s">
         <v>451</v>
-      </c>
-      <c r="C199" s="4" t="s">
-        <v>452</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>3</v>
@@ -7705,13 +7566,13 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="C200" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="C200" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>3</v>
@@ -7722,13 +7583,13 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="B201" s="2" t="s">
-        <v>457</v>
-      </c>
       <c r="C201" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>3</v>
@@ -7739,13 +7600,13 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="C202" s="4" t="s">
         <v>459</v>
-      </c>
-      <c r="C202" s="4" t="s">
-        <v>460</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>3</v>
@@ -7756,13 +7617,13 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="C203" s="4" t="s">
         <v>462</v>
-      </c>
-      <c r="C203" s="4" t="s">
-        <v>463</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>3</v>
@@ -7773,13 +7634,13 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B204" s="2" t="s">
-        <v>465</v>
-      </c>
       <c r="C204" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>3</v>
@@ -7790,13 +7651,13 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="C205" s="4" t="s">
         <v>467</v>
-      </c>
-      <c r="C205" s="4" t="s">
-        <v>468</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>3</v>
@@ -7807,7 +7668,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>37</v>
@@ -7824,13 +7685,13 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>471</v>
-      </c>
       <c r="C207" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>3</v>
@@ -7841,13 +7702,13 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="C208" s="4" t="s">
         <v>473</v>
-      </c>
-      <c r="C208" s="4" t="s">
-        <v>474</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>3</v>
@@ -7858,7 +7719,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>245</v>
@@ -7875,13 +7736,13 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="C210" s="4" t="s">
         <v>477</v>
-      </c>
-      <c r="C210" s="4" t="s">
-        <v>478</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>3</v>
@@ -7892,13 +7753,13 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B211" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="C211" s="4" t="s">
         <v>480</v>
-      </c>
-      <c r="C211" s="4" t="s">
-        <v>481</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>3</v>
@@ -7909,7 +7770,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>178</v>
@@ -7926,13 +7787,13 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="B213" s="2" t="s">
-        <v>484</v>
-      </c>
       <c r="C213" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>3</v>
@@ -7943,13 +7804,13 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="C214" s="4" t="s">
         <v>486</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>487</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>3</v>
@@ -7960,13 +7821,13 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="C215" s="4" t="s">
         <v>489</v>
-      </c>
-      <c r="C215" s="4" t="s">
-        <v>490</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>3</v>
@@ -7977,13 +7838,13 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="C216" s="4" t="s">
         <v>492</v>
-      </c>
-      <c r="C216" s="4" t="s">
-        <v>493</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>3</v>
@@ -7994,13 +7855,13 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="C217" s="4" t="s">
         <v>495</v>
-      </c>
-      <c r="C217" s="4" t="s">
-        <v>496</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>3</v>
@@ -8011,7 +7872,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>195</v>
@@ -8028,13 +7889,13 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="C219" s="4" t="s">
         <v>499</v>
-      </c>
-      <c r="C219" s="4" t="s">
-        <v>500</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>3</v>
@@ -8045,13 +7906,13 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B220" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="C220" s="4" t="s">
         <v>502</v>
-      </c>
-      <c r="C220" s="4" t="s">
-        <v>503</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>3</v>
@@ -8062,13 +7923,13 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="C221" s="4" t="s">
         <v>505</v>
-      </c>
-      <c r="C221" s="4" t="s">
-        <v>506</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>3</v>
@@ -8079,13 +7940,13 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="C222" s="4" t="s">
         <v>508</v>
-      </c>
-      <c r="C222" s="4" t="s">
-        <v>509</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>3</v>
@@ -8096,13 +7957,13 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B223" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="C223" s="4" t="s">
         <v>511</v>
-      </c>
-      <c r="C223" s="4" t="s">
-        <v>512</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>3</v>
@@ -8113,13 +7974,13 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B224" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="C224" s="4" t="s">
         <v>514</v>
-      </c>
-      <c r="C224" s="4" t="s">
-        <v>515</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>3</v>
@@ -8130,13 +7991,13 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B225" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="B225" s="2" t="s">
-        <v>517</v>
-      </c>
       <c r="C225" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>3</v>
@@ -8147,13 +8008,13 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B226" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="C226" s="4" t="s">
         <v>519</v>
-      </c>
-      <c r="C226" s="4" t="s">
-        <v>520</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>3</v>
@@ -8164,13 +8025,13 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="C227" s="4" t="s">
         <v>522</v>
-      </c>
-      <c r="C227" s="4" t="s">
-        <v>523</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>3</v>
@@ -8181,13 +8042,13 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B228" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B228" s="2" t="s">
-        <v>525</v>
-      </c>
       <c r="C228" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>3</v>
@@ -8198,13 +8059,13 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B229" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="C229" s="4" t="s">
         <v>527</v>
-      </c>
-      <c r="C229" s="4" t="s">
-        <v>528</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>3</v>
@@ -8215,13 +8076,13 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B230" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C230" s="4" t="s">
         <v>522</v>
-      </c>
-      <c r="C230" s="4" t="s">
-        <v>523</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>3</v>
@@ -8232,13 +8093,13 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B231" s="2" t="s">
-        <v>531</v>
-      </c>
       <c r="C231" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>3</v>
@@ -8249,13 +8110,13 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B232" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="C232" s="4" t="s">
         <v>533</v>
-      </c>
-      <c r="C232" s="4" t="s">
-        <v>534</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>3</v>
@@ -8266,13 +8127,13 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B233" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C233" s="4" t="s">
         <v>522</v>
-      </c>
-      <c r="C233" s="4" t="s">
-        <v>523</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>3</v>
@@ -8283,13 +8144,13 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B234" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="B234" s="2" t="s">
-        <v>537</v>
-      </c>
       <c r="C234" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>3</v>
@@ -8300,13 +8161,13 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B235" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="C235" s="4" t="s">
         <v>539</v>
-      </c>
-      <c r="C235" s="4" t="s">
-        <v>540</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>3</v>
@@ -8317,7 +8178,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>114</v>
@@ -8334,13 +8195,13 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B237" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="B237" s="2" t="s">
-        <v>543</v>
-      </c>
       <c r="C237" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>3</v>
@@ -8351,13 +8212,13 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B238" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="C238" s="4" t="s">
         <v>545</v>
-      </c>
-      <c r="C238" s="4" t="s">
-        <v>546</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>3</v>
@@ -8368,7 +8229,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>245</v>
@@ -8385,13 +8246,13 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B240" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="C240" s="4" t="s">
         <v>549</v>
-      </c>
-      <c r="C240" s="4" t="s">
-        <v>550</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>3</v>
@@ -8402,13 +8263,13 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B241" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="C241" s="4" t="s">
         <v>552</v>
-      </c>
-      <c r="C241" s="4" t="s">
-        <v>553</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>3</v>
@@ -8419,13 +8280,13 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B242" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C242" s="4" t="s">
         <v>514</v>
-      </c>
-      <c r="C242" s="4" t="s">
-        <v>515</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>3</v>
@@ -8436,13 +8297,13 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B243" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="B243" s="2" t="s">
-        <v>556</v>
-      </c>
       <c r="C243" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>3</v>
@@ -8453,13 +8314,13 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B244" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="C244" s="4" t="s">
         <v>558</v>
-      </c>
-      <c r="C244" s="4" t="s">
-        <v>559</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>3</v>
@@ -8470,7 +8331,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>286</v>
@@ -8487,13 +8348,13 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B246" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="B246" s="2" t="s">
-        <v>562</v>
-      </c>
       <c r="C246" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>3</v>
@@ -8504,13 +8365,13 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B247" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="C247" s="4" t="s">
         <v>564</v>
-      </c>
-      <c r="C247" s="4" t="s">
-        <v>565</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>3</v>
@@ -8521,13 +8382,13 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B248" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="B248" s="2" t="s">
+      <c r="C248" s="4" t="s">
         <v>567</v>
-      </c>
-      <c r="C248" s="4" t="s">
-        <v>568</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>3</v>
@@ -8538,13 +8399,13 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B249" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="B249" s="2" t="s">
+      <c r="C249" s="4" t="s">
         <v>570</v>
-      </c>
-      <c r="C249" s="4" t="s">
-        <v>571</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>3</v>
@@ -8555,13 +8416,13 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B250" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="C250" s="4" t="s">
         <v>573</v>
-      </c>
-      <c r="C250" s="4" t="s">
-        <v>574</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>3</v>
@@ -8572,13 +8433,13 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B251" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="C251" s="4" t="s">
         <v>576</v>
-      </c>
-      <c r="C251" s="4" t="s">
-        <v>577</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>3</v>
@@ -8589,13 +8450,13 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B252" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="B252" s="2" t="s">
-        <v>579</v>
-      </c>
       <c r="C252" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>3</v>
@@ -8606,13 +8467,13 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B253" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="C253" s="4" t="s">
         <v>581</v>
-      </c>
-      <c r="C253" s="4" t="s">
-        <v>582</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>3</v>
@@ -8623,13 +8484,13 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B254" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="C254" s="4" t="s">
         <v>584</v>
-      </c>
-      <c r="C254" s="4" t="s">
-        <v>585</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>3</v>
@@ -8640,13 +8501,13 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B255" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="B255" s="2" t="s">
-        <v>587</v>
-      </c>
       <c r="C255" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>3</v>
@@ -8657,13 +8518,13 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B256" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="B256" s="2" t="s">
+      <c r="C256" s="4" t="s">
         <v>589</v>
-      </c>
-      <c r="C256" s="4" t="s">
-        <v>590</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>3</v>
@@ -8674,13 +8535,13 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B257" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="B257" s="2" t="s">
+      <c r="C257" s="4" t="s">
         <v>592</v>
-      </c>
-      <c r="C257" s="4" t="s">
-        <v>593</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>3</v>
@@ -8691,13 +8552,13 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B258" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="B258" s="2" t="s">
-        <v>595</v>
-      </c>
       <c r="C258" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>3</v>
@@ -8708,13 +8569,13 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B259" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="B259" s="2" t="s">
+      <c r="C259" s="4" t="s">
         <v>597</v>
-      </c>
-      <c r="C259" s="4" t="s">
-        <v>598</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>3</v>
@@ -8725,7 +8586,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>245</v>
@@ -8742,13 +8603,13 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B261" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="B261" s="2" t="s">
-        <v>601</v>
-      </c>
       <c r="C261" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>3</v>
@@ -8759,13 +8620,13 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B262" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="B262" s="2" t="s">
+      <c r="C262" s="4" t="s">
         <v>603</v>
-      </c>
-      <c r="C262" s="4" t="s">
-        <v>604</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>3</v>
@@ -8776,7 +8637,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>245</v>
@@ -8793,13 +8654,13 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B264" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="B264" s="2" t="s">
-        <v>607</v>
-      </c>
       <c r="C264" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>3</v>
@@ -8810,13 +8671,13 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B265" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="B265" s="2" t="s">
+      <c r="C265" s="4" t="s">
         <v>609</v>
-      </c>
-      <c r="C265" s="4" t="s">
-        <v>610</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>3</v>
@@ -8827,13 +8688,13 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B266" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C266" s="4" t="s">
         <v>428</v>
-      </c>
-      <c r="C266" s="4" t="s">
-        <v>429</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>3</v>
@@ -8844,13 +8705,13 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B267" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="B267" s="2" t="s">
-        <v>613</v>
-      </c>
       <c r="C267" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>3</v>
@@ -8861,13 +8722,13 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B268" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="B268" s="2" t="s">
+      <c r="C268" s="4" t="s">
         <v>615</v>
-      </c>
-      <c r="C268" s="4" t="s">
-        <v>616</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>3</v>
@@ -8878,13 +8739,13 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B269" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="B269" s="2" t="s">
+      <c r="C269" s="4" t="s">
         <v>618</v>
-      </c>
-      <c r="C269" s="4" t="s">
-        <v>619</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>3</v>
@@ -8895,13 +8756,13 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B270" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="B270" s="2" t="s">
-        <v>621</v>
-      </c>
       <c r="C270" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>3</v>
@@ -8912,13 +8773,13 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B271" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="B271" s="2" t="s">
+      <c r="C271" s="4" t="s">
         <v>623</v>
-      </c>
-      <c r="C271" s="4" t="s">
-        <v>624</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>3</v>
@@ -8929,13 +8790,13 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B272" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="B272" s="2" t="s">
+      <c r="C272" s="4" t="s">
         <v>626</v>
-      </c>
-      <c r="C272" s="4" t="s">
-        <v>627</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>3</v>
@@ -8946,13 +8807,13 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B273" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="B273" s="2" t="s">
-        <v>629</v>
-      </c>
       <c r="C273" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>3</v>
@@ -8963,13 +8824,13 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B274" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="B274" s="2" t="s">
+      <c r="C274" s="4" t="s">
         <v>631</v>
-      </c>
-      <c r="C274" s="4" t="s">
-        <v>632</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>3</v>
@@ -8980,13 +8841,13 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B275" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="B275" s="2" t="s">
+      <c r="C275" s="4" t="s">
         <v>634</v>
-      </c>
-      <c r="C275" s="4" t="s">
-        <v>635</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>3</v>
@@ -8997,13 +8858,13 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B276" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="B276" s="2" t="s">
-        <v>637</v>
-      </c>
       <c r="C276" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>3</v>
@@ -9014,13 +8875,13 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B277" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="B277" s="2" t="s">
+      <c r="C277" s="4" t="s">
         <v>639</v>
-      </c>
-      <c r="C277" s="4" t="s">
-        <v>640</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>3</v>
@@ -9031,7 +8892,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>65</v>
@@ -9048,13 +8909,13 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B279" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="B279" s="2" t="s">
-        <v>643</v>
-      </c>
       <c r="C279" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>3</v>
@@ -9065,13 +8926,13 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B280" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="B280" s="2" t="s">
+      <c r="C280" s="4" t="s">
         <v>645</v>
-      </c>
-      <c r="C280" s="4" t="s">
-        <v>646</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>3</v>
@@ -9082,13 +8943,13 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B281" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="B281" s="2" t="s">
+      <c r="C281" s="4" t="s">
         <v>648</v>
-      </c>
-      <c r="C281" s="4" t="s">
-        <v>649</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>3</v>
@@ -9099,13 +8960,13 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B282" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="B282" s="2" t="s">
-        <v>651</v>
-      </c>
       <c r="C282" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>3</v>
@@ -9116,13 +8977,13 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B283" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="B283" s="2" t="s">
+      <c r="C283" s="4" t="s">
         <v>653</v>
-      </c>
-      <c r="C283" s="4" t="s">
-        <v>654</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>3</v>
@@ -9133,13 +8994,13 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B284" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="C284" s="4" t="s">
         <v>648</v>
-      </c>
-      <c r="C284" s="4" t="s">
-        <v>649</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>3</v>
@@ -9150,13 +9011,13 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B285" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="B285" s="2" t="s">
-        <v>657</v>
-      </c>
       <c r="C285" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>3</v>
@@ -9167,13 +9028,13 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B286" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="B286" s="2" t="s">
+      <c r="C286" s="4" t="s">
         <v>659</v>
-      </c>
-      <c r="C286" s="4" t="s">
-        <v>660</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>3</v>
@@ -9184,7 +9045,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>178</v>
@@ -9201,13 +9062,13 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B288" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="B288" s="2" t="s">
-        <v>663</v>
-      </c>
       <c r="C288" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>3</v>
@@ -9218,13 +9079,13 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B289" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="B289" s="2" t="s">
+      <c r="C289" s="4" t="s">
         <v>665</v>
-      </c>
-      <c r="C289" s="4" t="s">
-        <v>666</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>3</v>
@@ -9235,13 +9096,13 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B290" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="B290" s="2" t="s">
+      <c r="C290" s="4" t="s">
         <v>668</v>
-      </c>
-      <c r="C290" s="4" t="s">
-        <v>669</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>3</v>
@@ -9252,13 +9113,13 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B291" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="B291" s="2" t="s">
-        <v>671</v>
-      </c>
       <c r="C291" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>3</v>
@@ -9269,13 +9130,13 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B292" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="B292" s="2" t="s">
+      <c r="C292" s="4" t="s">
         <v>673</v>
-      </c>
-      <c r="C292" s="4" t="s">
-        <v>674</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>3</v>
@@ -9286,7 +9147,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>5</v>
@@ -9303,13 +9164,13 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B294" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B294" s="2" t="s">
-        <v>677</v>
-      </c>
       <c r="C294" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>3</v>
@@ -9320,13 +9181,13 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B295" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="B295" s="2" t="s">
+      <c r="C295" s="4" t="s">
         <v>679</v>
-      </c>
-      <c r="C295" s="4" t="s">
-        <v>680</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>3</v>
@@ -9337,13 +9198,13 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B296" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="B296" s="2" t="s">
+      <c r="C296" s="4" t="s">
         <v>682</v>
-      </c>
-      <c r="C296" s="4" t="s">
-        <v>683</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>3</v>
@@ -9354,13 +9215,13 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B297" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="B297" s="2" t="s">
-        <v>685</v>
-      </c>
       <c r="C297" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>3</v>
@@ -9371,13 +9232,13 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B298" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="B298" s="2" t="s">
+      <c r="C298" s="4" t="s">
         <v>687</v>
-      </c>
-      <c r="C298" s="4" t="s">
-        <v>688</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>3</v>
@@ -9388,13 +9249,13 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B299" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="B299" s="2" t="s">
+      <c r="C299" s="4" t="s">
         <v>690</v>
-      </c>
-      <c r="C299" s="4" t="s">
-        <v>691</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>3</v>
@@ -9405,13 +9266,13 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B300" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="B300" s="2" t="s">
-        <v>693</v>
-      </c>
       <c r="C300" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>3</v>
@@ -9422,13 +9283,13 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B301" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="B301" s="2" t="s">
+      <c r="C301" s="4" t="s">
         <v>695</v>
-      </c>
-      <c r="C301" s="4" t="s">
-        <v>696</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>3</v>
@@ -9439,13 +9300,13 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B302" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="B302" s="2" t="s">
+      <c r="C302" s="4" t="s">
         <v>698</v>
-      </c>
-      <c r="C302" s="4" t="s">
-        <v>699</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>3</v>
@@ -9456,13 +9317,13 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B303" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="B303" s="2" t="s">
-        <v>701</v>
-      </c>
       <c r="C303" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>3</v>
@@ -9473,13 +9334,13 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B304" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="B304" s="2" t="s">
+      <c r="C304" s="4" t="s">
         <v>703</v>
-      </c>
-      <c r="C304" s="4" t="s">
-        <v>704</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>3</v>
@@ -9490,7 +9351,7 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>5</v>
@@ -9507,10 +9368,10 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B306" s="3" t="s">
         <v>706</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>707</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>707</v>
@@ -9544,10 +9405,10 @@
         <v>711</v>
       </c>
       <c r="B308" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C308" s="4" t="s">
         <v>489</v>
-      </c>
-      <c r="C308" s="4" t="s">
-        <v>490</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>3</v>
@@ -9646,10 +9507,10 @@
         <v>723</v>
       </c>
       <c r="B314" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C314" s="4" t="s">
         <v>489</v>
-      </c>
-      <c r="C314" s="4" t="s">
-        <v>490</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>3</v>
@@ -9850,10 +9711,10 @@
         <v>750</v>
       </c>
       <c r="B326" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C326" s="4" t="s">
         <v>489</v>
-      </c>
-      <c r="C326" s="4" t="s">
-        <v>490</v>
       </c>
       <c r="D326" s="2" t="s">
         <v>3</v>
@@ -9901,10 +9762,10 @@
         <v>756</v>
       </c>
       <c r="B329" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C329" s="4" t="s">
         <v>489</v>
-      </c>
-      <c r="C329" s="4" t="s">
-        <v>490</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>3</v>
@@ -9952,10 +9813,10 @@
         <v>763</v>
       </c>
       <c r="B332" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C332" s="4" t="s">
         <v>489</v>
-      </c>
-      <c r="C332" s="4" t="s">
-        <v>490</v>
       </c>
       <c r="D332" s="2" t="s">
         <v>3</v>
@@ -10019,7 +9880,7 @@
       <c r="A336" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="B336" s="2" t="s">
+      <c r="B336" s="3" t="s">
         <v>773</v>
       </c>
       <c r="C336" s="4" t="s">
@@ -10054,10 +9915,10 @@
         <v>777</v>
       </c>
       <c r="B338" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C338" s="4" t="s">
         <v>489</v>
-      </c>
-      <c r="C338" s="4" t="s">
-        <v>490</v>
       </c>
       <c r="D338" s="2" t="s">
         <v>3</v>
@@ -10291,7 +10152,7 @@
       <c r="A352" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="B352" s="2" t="s">
+      <c r="B352" s="3" t="s">
         <v>810</v>
       </c>
       <c r="C352" s="4" t="s">
@@ -10682,7 +10543,7 @@
       <c r="A375" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="B375" s="2" t="s">
+      <c r="B375" s="3" t="s">
         <v>865</v>
       </c>
       <c r="C375" s="4" t="s">
@@ -10768,10 +10629,10 @@
         <v>876</v>
       </c>
       <c r="B380" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C380" s="4" t="s">
         <v>489</v>
-      </c>
-      <c r="C380" s="4" t="s">
-        <v>490</v>
       </c>
       <c r="D380" s="2" t="s">
         <v>3</v>
@@ -10819,10 +10680,10 @@
         <v>883</v>
       </c>
       <c r="B383" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C383" s="4" t="s">
         <v>489</v>
-      </c>
-      <c r="C383" s="4" t="s">
-        <v>490</v>
       </c>
       <c r="D383" s="2" t="s">
         <v>3</v>
@@ -10870,10 +10731,10 @@
         <v>889</v>
       </c>
       <c r="B386" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C386" s="4" t="s">
         <v>567</v>
-      </c>
-      <c r="C386" s="4" t="s">
-        <v>568</v>
       </c>
       <c r="D386" s="2" t="s">
         <v>3</v>
@@ -11244,10 +11105,10 @@
         <v>928</v>
       </c>
       <c r="B408" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C408" s="4" t="s">
         <v>929</v>
-      </c>
-      <c r="C408" s="4" t="s">
-        <v>930</v>
       </c>
       <c r="D408" s="2" t="s">
         <v>3</v>
@@ -11258,7 +11119,7 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>70</v>
@@ -11275,7 +11136,7 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>76</v>
@@ -11292,7 +11153,7 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>84</v>
@@ -11309,7 +11170,7 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>90</v>
@@ -11326,13 +11187,13 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C413" s="4" t="s">
         <v>935</v>
-      </c>
-      <c r="B413" s="2" t="s">
-        <v>936</v>
-      </c>
-      <c r="C413" s="4" t="s">
-        <v>937</v>
       </c>
       <c r="D413" s="2" t="s">
         <v>3</v>
@@ -11343,7 +11204,7 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>105</v>
@@ -11360,13 +11221,13 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="s">
-        <v>939</v>
-      </c>
-      <c r="B415" s="2" t="s">
-        <v>940</v>
+        <v>937</v>
+      </c>
+      <c r="B415" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="D415" s="2" t="s">
         <v>3</v>
@@ -11377,13 +11238,13 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="s">
-        <v>942</v>
-      </c>
-      <c r="B416" s="2" t="s">
-        <v>943</v>
+        <v>939</v>
+      </c>
+      <c r="B416" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="D416" s="2" t="s">
         <v>3</v>
@@ -11394,7 +11255,7 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>127</v>
@@ -11411,7 +11272,7 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>135</v>
@@ -11428,7 +11289,7 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>143</v>
@@ -11445,7 +11306,7 @@
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>151</v>
@@ -11462,7 +11323,7 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>159</v>
@@ -11479,7 +11340,7 @@
     </row>
     <row r="422">
       <c r="A422" s="2" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>167</v>
@@ -11496,7 +11357,7 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>175</v>
@@ -11513,7 +11374,7 @@
     </row>
     <row r="424">
       <c r="A424" s="2" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>184</v>
@@ -11530,7 +11391,7 @@
     </row>
     <row r="425">
       <c r="A425" s="2" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>192</v>
@@ -11547,13 +11408,13 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
-        <v>954</v>
-      </c>
-      <c r="B426" s="2" t="s">
-        <v>955</v>
+        <v>950</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>956</v>
+        <v>201</v>
       </c>
       <c r="D426" s="2" t="s">
         <v>3</v>
@@ -11564,7 +11425,7 @@
     </row>
     <row r="427">
       <c r="A427" s="2" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>208</v>
@@ -11581,7 +11442,7 @@
     </row>
     <row r="428">
       <c r="A428" s="2" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>214</v>
@@ -11598,7 +11459,7 @@
     </row>
     <row r="429">
       <c r="A429" s="2" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>222</v>
@@ -11615,7 +11476,7 @@
     </row>
     <row r="430">
       <c r="A430" s="2" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>230</v>
@@ -11632,7 +11493,7 @@
     </row>
     <row r="431">
       <c r="A431" s="2" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>236</v>
@@ -11649,7 +11510,7 @@
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>242</v>
@@ -11666,13 +11527,13 @@
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="B433" s="2" t="s">
-        <v>964</v>
+        <v>957</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>251</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="D433" s="2" t="s">
         <v>3</v>
@@ -11683,7 +11544,7 @@
     </row>
     <row r="434">
       <c r="A434" s="2" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>257</v>
@@ -11700,13 +11561,13 @@
     </row>
     <row r="435">
       <c r="A435" s="2" t="s">
-        <v>967</v>
-      </c>
-      <c r="B435" s="2" t="s">
-        <v>968</v>
+        <v>960</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>969</v>
+        <v>266</v>
       </c>
       <c r="D435" s="2" t="s">
         <v>3</v>
@@ -11717,7 +11578,7 @@
     </row>
     <row r="436">
       <c r="A436" s="2" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>271</v>
@@ -11734,7 +11595,7 @@
     </row>
     <row r="437">
       <c r="A437" s="2" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>277</v>
@@ -11751,7 +11612,7 @@
     </row>
     <row r="438">
       <c r="A438" s="2" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>283</v>
@@ -11768,7 +11629,7 @@
     </row>
     <row r="439">
       <c r="A439" s="2" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>291</v>
@@ -11785,7 +11646,7 @@
     </row>
     <row r="440">
       <c r="A440" s="2" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>298</v>
@@ -11802,7 +11663,7 @@
     </row>
     <row r="441">
       <c r="A441" s="2" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>304</v>
@@ -11819,7 +11680,7 @@
     </row>
     <row r="442">
       <c r="A442" s="2" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>304</v>
@@ -11836,7 +11697,7 @@
     </row>
     <row r="443">
       <c r="A443" s="2" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>304</v>
@@ -11853,7 +11714,7 @@
     </row>
     <row r="444">
       <c r="A444" s="2" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>304</v>
@@ -11870,7 +11731,7 @@
     </row>
     <row r="445">
       <c r="A445" s="2" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>304</v>
@@ -11887,7 +11748,7 @@
     </row>
     <row r="446">
       <c r="A446" s="2" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>304</v>
@@ -11904,7 +11765,7 @@
     </row>
     <row r="447">
       <c r="A447" s="2" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>304</v>
@@ -11921,7 +11782,7 @@
     </row>
     <row r="448">
       <c r="A448" s="2" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>304</v>
@@ -11938,13 +11799,13 @@
     </row>
     <row r="449">
       <c r="A449" s="2" t="s">
-        <v>983</v>
-      </c>
-      <c r="B449" s="2" t="s">
-        <v>984</v>
+        <v>974</v>
+      </c>
+      <c r="B449" s="3" t="s">
+        <v>333</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>985</v>
+        <v>975</v>
       </c>
       <c r="D449" s="2" t="s">
         <v>3</v>
@@ -11955,13 +11816,13 @@
     </row>
     <row r="450">
       <c r="A450" s="2" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>987</v>
+        <v>339</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>988</v>
+        <v>340</v>
       </c>
       <c r="D450" s="2" t="s">
         <v>3</v>
@@ -11972,7 +11833,7 @@
     </row>
     <row r="451">
       <c r="A451" s="2" t="s">
-        <v>989</v>
+        <v>977</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>345</v>
@@ -11989,7 +11850,7 @@
     </row>
     <row r="452">
       <c r="A452" s="2" t="s">
-        <v>990</v>
+        <v>978</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>351</v>
@@ -12006,13 +11867,13 @@
     </row>
     <row r="453">
       <c r="A453" s="2" t="s">
-        <v>991</v>
+        <v>979</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>992</v>
+        <v>358</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>993</v>
+        <v>980</v>
       </c>
       <c r="D453" s="2" t="s">
         <v>3</v>
@@ -12023,7 +11884,7 @@
     </row>
     <row r="454">
       <c r="A454" s="2" t="s">
-        <v>994</v>
+        <v>981</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>366</v>
@@ -12040,7 +11901,7 @@
     </row>
     <row r="455">
       <c r="A455" s="2" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>374</v>
@@ -12057,7 +11918,7 @@
     </row>
     <row r="456">
       <c r="A456" s="2" t="s">
-        <v>996</v>
+        <v>983</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>382</v>
@@ -12074,7 +11935,7 @@
     </row>
     <row r="457">
       <c r="A457" s="2" t="s">
-        <v>997</v>
+        <v>984</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>382</v>
@@ -12091,7 +11952,7 @@
     </row>
     <row r="458">
       <c r="A458" s="2" t="s">
-        <v>998</v>
+        <v>985</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>394</v>
@@ -12108,7 +11969,7 @@
     </row>
     <row r="459">
       <c r="A459" s="2" t="s">
-        <v>999</v>
+        <v>986</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>401</v>
@@ -12125,13 +11986,13 @@
     </row>
     <row r="460">
       <c r="A460" s="2" t="s">
-        <v>1000</v>
+        <v>987</v>
       </c>
       <c r="B460" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C460" s="4" t="s">
         <v>408</v>
-      </c>
-      <c r="C460" s="4" t="s">
-        <v>409</v>
       </c>
       <c r="D460" s="2" t="s">
         <v>3</v>
@@ -12142,13 +12003,13 @@
     </row>
     <row r="461">
       <c r="A461" s="2" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B461" s="2" t="s">
-        <v>1002</v>
+        <v>988</v>
+      </c>
+      <c r="B461" s="3" t="s">
+        <v>415</v>
       </c>
       <c r="C461" s="4" t="s">
-        <v>1003</v>
+        <v>989</v>
       </c>
       <c r="D461" s="2" t="s">
         <v>3</v>
@@ -12159,13 +12020,13 @@
     </row>
     <row r="462">
       <c r="A462" s="2" t="s">
-        <v>1004</v>
+        <v>990</v>
       </c>
       <c r="B462" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C462" s="4" t="s">
         <v>425</v>
-      </c>
-      <c r="C462" s="4" t="s">
-        <v>426</v>
       </c>
       <c r="D462" s="2" t="s">
         <v>3</v>
@@ -12176,13 +12037,13 @@
     </row>
     <row r="463">
       <c r="A463" s="2" t="s">
-        <v>1005</v>
+        <v>991</v>
       </c>
       <c r="B463" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C463" s="4" t="s">
         <v>433</v>
-      </c>
-      <c r="C463" s="4" t="s">
-        <v>434</v>
       </c>
       <c r="D463" s="2" t="s">
         <v>3</v>
@@ -12193,13 +12054,13 @@
     </row>
     <row r="464">
       <c r="A464" s="2" t="s">
-        <v>1006</v>
+        <v>992</v>
       </c>
       <c r="B464" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C464" s="4" t="s">
         <v>439</v>
-      </c>
-      <c r="C464" s="4" t="s">
-        <v>440</v>
       </c>
       <c r="D464" s="2" t="s">
         <v>3</v>
@@ -12210,13 +12071,13 @@
     </row>
     <row r="465">
       <c r="A465" s="2" t="s">
-        <v>1007</v>
+        <v>993</v>
       </c>
       <c r="B465" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C465" s="4" t="s">
         <v>445</v>
-      </c>
-      <c r="C465" s="4" t="s">
-        <v>446</v>
       </c>
       <c r="D465" s="2" t="s">
         <v>3</v>
@@ -12227,13 +12088,13 @@
     </row>
     <row r="466">
       <c r="A466" s="2" t="s">
-        <v>1008</v>
+        <v>994</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>1009</v>
+        <v>450</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>1010</v>
+        <v>995</v>
       </c>
       <c r="D466" s="2" t="s">
         <v>3</v>
@@ -12244,13 +12105,13 @@
     </row>
     <row r="467">
       <c r="A467" s="2" t="s">
-        <v>1011</v>
+        <v>996</v>
       </c>
       <c r="B467" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C467" s="4" t="s">
         <v>459</v>
-      </c>
-      <c r="C467" s="4" t="s">
-        <v>460</v>
       </c>
       <c r="D467" s="2" t="s">
         <v>3</v>
@@ -12261,13 +12122,13 @@
     </row>
     <row r="468">
       <c r="A468" s="2" t="s">
-        <v>1012</v>
+        <v>997</v>
       </c>
       <c r="B468" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C468" s="4" t="s">
         <v>467</v>
-      </c>
-      <c r="C468" s="4" t="s">
-        <v>468</v>
       </c>
       <c r="D468" s="2" t="s">
         <v>3</v>
@@ -12278,13 +12139,13 @@
     </row>
     <row r="469">
       <c r="A469" s="2" t="s">
-        <v>1013</v>
+        <v>998</v>
       </c>
       <c r="B469" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C469" s="4" t="s">
         <v>473</v>
-      </c>
-      <c r="C469" s="4" t="s">
-        <v>474</v>
       </c>
       <c r="D469" s="2" t="s">
         <v>3</v>
@@ -12295,13 +12156,13 @@
     </row>
     <row r="470">
       <c r="A470" s="2" t="s">
-        <v>1014</v>
+        <v>999</v>
       </c>
       <c r="B470" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C470" s="4" t="s">
         <v>480</v>
-      </c>
-      <c r="C470" s="4" t="s">
-        <v>481</v>
       </c>
       <c r="D470" s="2" t="s">
         <v>3</v>
@@ -12312,13 +12173,13 @@
     </row>
     <row r="471">
       <c r="A471" s="2" t="s">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="B471" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C471" s="4" t="s">
         <v>486</v>
-      </c>
-      <c r="C471" s="4" t="s">
-        <v>487</v>
       </c>
       <c r="D471" s="2" t="s">
         <v>3</v>
@@ -12329,13 +12190,13 @@
     </row>
     <row r="472">
       <c r="A472" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B472" s="2" t="s">
-        <v>1017</v>
+        <v>1001</v>
+      </c>
+      <c r="B472" s="3" t="s">
+        <v>494</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D472" s="2" t="s">
         <v>3</v>
@@ -12346,13 +12207,13 @@
     </row>
     <row r="473">
       <c r="A473" s="2" t="s">
-        <v>1018</v>
+        <v>1002</v>
       </c>
       <c r="B473" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C473" s="4" t="s">
         <v>502</v>
-      </c>
-      <c r="C473" s="4" t="s">
-        <v>503</v>
       </c>
       <c r="D473" s="2" t="s">
         <v>3</v>
@@ -12363,13 +12224,13 @@
     </row>
     <row r="474">
       <c r="A474" s="2" t="s">
-        <v>1019</v>
+        <v>1003</v>
       </c>
       <c r="B474" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C474" s="4" t="s">
         <v>511</v>
-      </c>
-      <c r="C474" s="4" t="s">
-        <v>512</v>
       </c>
       <c r="D474" s="2" t="s">
         <v>3</v>
@@ -12380,13 +12241,13 @@
     </row>
     <row r="475">
       <c r="A475" s="2" t="s">
-        <v>1020</v>
+        <v>1004</v>
       </c>
       <c r="B475" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C475" s="4" t="s">
         <v>519</v>
-      </c>
-      <c r="C475" s="4" t="s">
-        <v>520</v>
       </c>
       <c r="D475" s="2" t="s">
         <v>3</v>
@@ -12397,13 +12258,13 @@
     </row>
     <row r="476">
       <c r="A476" s="2" t="s">
-        <v>1021</v>
+        <v>1005</v>
       </c>
       <c r="B476" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C476" s="4" t="s">
         <v>527</v>
-      </c>
-      <c r="C476" s="4" t="s">
-        <v>528</v>
       </c>
       <c r="D476" s="2" t="s">
         <v>3</v>
@@ -12414,13 +12275,13 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B477" s="2" t="s">
-        <v>1023</v>
+        <v>1006</v>
+      </c>
+      <c r="B477" s="3" t="s">
+        <v>532</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>1024</v>
+        <v>1007</v>
       </c>
       <c r="D477" s="2" t="s">
         <v>3</v>
@@ -12431,13 +12292,13 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="s">
-        <v>1025</v>
+        <v>1008</v>
       </c>
       <c r="B478" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C478" s="4" t="s">
         <v>539</v>
-      </c>
-      <c r="C478" s="4" t="s">
-        <v>540</v>
       </c>
       <c r="D478" s="2" t="s">
         <v>3</v>
@@ -12448,13 +12309,13 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="s">
-        <v>1026</v>
+        <v>1009</v>
       </c>
       <c r="B479" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C479" s="4" t="s">
         <v>545</v>
-      </c>
-      <c r="C479" s="4" t="s">
-        <v>546</v>
       </c>
       <c r="D479" s="2" t="s">
         <v>3</v>
@@ -12465,13 +12326,13 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="s">
-        <v>1027</v>
+        <v>1010</v>
       </c>
       <c r="B480" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C480" s="4" t="s">
         <v>552</v>
-      </c>
-      <c r="C480" s="4" t="s">
-        <v>553</v>
       </c>
       <c r="D480" s="2" t="s">
         <v>3</v>
@@ -12482,13 +12343,13 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="s">
-        <v>1028</v>
+        <v>1011</v>
       </c>
       <c r="B481" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C481" s="4" t="s">
         <v>558</v>
-      </c>
-      <c r="C481" s="4" t="s">
-        <v>559</v>
       </c>
       <c r="D481" s="2" t="s">
         <v>3</v>
@@ -12499,13 +12360,13 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="s">
-        <v>1029</v>
+        <v>1012</v>
       </c>
       <c r="B482" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C482" s="4" t="s">
         <v>564</v>
-      </c>
-      <c r="C482" s="4" t="s">
-        <v>565</v>
       </c>
       <c r="D482" s="2" t="s">
         <v>3</v>
@@ -12516,13 +12377,13 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="s">
-        <v>1030</v>
+        <v>1013</v>
       </c>
       <c r="B483" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C483" s="4" t="s">
         <v>573</v>
-      </c>
-      <c r="C483" s="4" t="s">
-        <v>574</v>
       </c>
       <c r="D483" s="2" t="s">
         <v>3</v>
@@ -12533,13 +12394,13 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="s">
-        <v>1031</v>
+        <v>1014</v>
       </c>
       <c r="B484" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C484" s="4" t="s">
         <v>581</v>
-      </c>
-      <c r="C484" s="4" t="s">
-        <v>582</v>
       </c>
       <c r="D484" s="2" t="s">
         <v>3</v>
@@ -12550,13 +12411,13 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="s">
-        <v>1032</v>
+        <v>1015</v>
       </c>
       <c r="B485" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C485" s="4" t="s">
         <v>589</v>
-      </c>
-      <c r="C485" s="4" t="s">
-        <v>590</v>
       </c>
       <c r="D485" s="2" t="s">
         <v>3</v>
@@ -12567,13 +12428,13 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="s">
-        <v>1033</v>
+        <v>1016</v>
       </c>
       <c r="B486" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C486" s="4" t="s">
         <v>597</v>
-      </c>
-      <c r="C486" s="4" t="s">
-        <v>598</v>
       </c>
       <c r="D486" s="2" t="s">
         <v>3</v>
@@ -12584,13 +12445,13 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="s">
-        <v>1034</v>
+        <v>1017</v>
       </c>
       <c r="B487" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="C487" s="4" t="s">
         <v>603</v>
-      </c>
-      <c r="C487" s="4" t="s">
-        <v>604</v>
       </c>
       <c r="D487" s="2" t="s">
         <v>3</v>
@@ -12601,13 +12462,13 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="s">
-        <v>1035</v>
+        <v>1018</v>
       </c>
       <c r="B488" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C488" s="4" t="s">
         <v>609</v>
-      </c>
-      <c r="C488" s="4" t="s">
-        <v>610</v>
       </c>
       <c r="D488" s="2" t="s">
         <v>3</v>
@@ -12618,13 +12479,13 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="s">
-        <v>1036</v>
+        <v>1019</v>
       </c>
       <c r="B489" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C489" s="4" t="s">
         <v>615</v>
-      </c>
-      <c r="C489" s="4" t="s">
-        <v>616</v>
       </c>
       <c r="D489" s="2" t="s">
         <v>3</v>
@@ -12635,13 +12496,13 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="s">
-        <v>1037</v>
+        <v>1020</v>
       </c>
       <c r="B490" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C490" s="4" t="s">
         <v>623</v>
-      </c>
-      <c r="C490" s="4" t="s">
-        <v>624</v>
       </c>
       <c r="D490" s="2" t="s">
         <v>3</v>
@@ -12652,13 +12513,13 @@
     </row>
     <row r="491">
       <c r="A491" s="2" t="s">
-        <v>1038</v>
+        <v>1021</v>
       </c>
       <c r="B491" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C491" s="4" t="s">
         <v>631</v>
-      </c>
-      <c r="C491" s="4" t="s">
-        <v>632</v>
       </c>
       <c r="D491" s="2" t="s">
         <v>3</v>
@@ -12669,13 +12530,13 @@
     </row>
     <row r="492">
       <c r="A492" s="2" t="s">
-        <v>1039</v>
+        <v>1022</v>
       </c>
       <c r="B492" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="C492" s="4" t="s">
         <v>639</v>
-      </c>
-      <c r="C492" s="4" t="s">
-        <v>640</v>
       </c>
       <c r="D492" s="2" t="s">
         <v>3</v>
@@ -12686,13 +12547,13 @@
     </row>
     <row r="493">
       <c r="A493" s="2" t="s">
-        <v>1040</v>
+        <v>1023</v>
       </c>
       <c r="B493" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C493" s="4" t="s">
         <v>645</v>
-      </c>
-      <c r="C493" s="4" t="s">
-        <v>646</v>
       </c>
       <c r="D493" s="2" t="s">
         <v>3</v>
@@ -12703,13 +12564,13 @@
     </row>
     <row r="494">
       <c r="A494" s="2" t="s">
-        <v>1041</v>
+        <v>1024</v>
       </c>
       <c r="B494" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="C494" s="4" t="s">
         <v>653</v>
-      </c>
-      <c r="C494" s="4" t="s">
-        <v>654</v>
       </c>
       <c r="D494" s="2" t="s">
         <v>3</v>
@@ -12720,13 +12581,13 @@
     </row>
     <row r="495">
       <c r="A495" s="2" t="s">
-        <v>1042</v>
+        <v>1025</v>
       </c>
       <c r="B495" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C495" s="4" t="s">
         <v>659</v>
-      </c>
-      <c r="C495" s="4" t="s">
-        <v>660</v>
       </c>
       <c r="D495" s="2" t="s">
         <v>3</v>
@@ -12737,13 +12598,13 @@
     </row>
     <row r="496">
       <c r="A496" s="2" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B496" s="2" t="s">
-        <v>1044</v>
+        <v>1026</v>
+      </c>
+      <c r="B496" s="3" t="s">
+        <v>664</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>1045</v>
+        <v>1027</v>
       </c>
       <c r="D496" s="2" t="s">
         <v>3</v>
@@ -12754,13 +12615,13 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="s">
-        <v>1046</v>
+        <v>1028</v>
       </c>
       <c r="B497" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C497" s="4" t="s">
         <v>673</v>
-      </c>
-      <c r="C497" s="4" t="s">
-        <v>674</v>
       </c>
       <c r="D497" s="2" t="s">
         <v>3</v>
@@ -12771,13 +12632,13 @@
     </row>
     <row r="498">
       <c r="A498" s="2" t="s">
-        <v>1047</v>
+        <v>1029</v>
       </c>
       <c r="B498" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="C498" s="4" t="s">
         <v>679</v>
-      </c>
-      <c r="C498" s="4" t="s">
-        <v>680</v>
       </c>
       <c r="D498" s="2" t="s">
         <v>3</v>
@@ -12788,13 +12649,13 @@
     </row>
     <row r="499">
       <c r="A499" s="2" t="s">
-        <v>1048</v>
+        <v>1030</v>
       </c>
       <c r="B499" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="C499" s="4" t="s">
         <v>687</v>
-      </c>
-      <c r="C499" s="4" t="s">
-        <v>688</v>
       </c>
       <c r="D499" s="2" t="s">
         <v>3</v>
@@ -12805,13 +12666,13 @@
     </row>
     <row r="500">
       <c r="A500" s="2" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="B500" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="C500" s="4" t="s">
         <v>695</v>
-      </c>
-      <c r="C500" s="4" t="s">
-        <v>696</v>
       </c>
       <c r="D500" s="2" t="s">
         <v>3</v>
@@ -12822,13 +12683,13 @@
     </row>
     <row r="501">
       <c r="A501" s="2" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B501" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B501" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="C501" s="4" t="s">
         <v>703</v>
-      </c>
-      <c r="C501" s="4" t="s">
-        <v>704</v>
       </c>
       <c r="D501" s="2" t="s">
         <v>3</v>
@@ -12839,7 +12700,7 @@
     </row>
     <row r="502">
       <c r="A502" s="2" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="B502" s="2" t="s">
         <v>709</v>
@@ -12856,7 +12717,7 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="s">
-        <v>1052</v>
+        <v>1034</v>
       </c>
       <c r="B503" s="2" t="s">
         <v>716</v>
@@ -12873,7 +12734,7 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="s">
-        <v>1053</v>
+        <v>1035</v>
       </c>
       <c r="B504" s="2" t="s">
         <v>721</v>
@@ -12890,7 +12751,7 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="s">
-        <v>1054</v>
+        <v>1036</v>
       </c>
       <c r="B505" s="2" t="s">
         <v>726</v>
@@ -12907,7 +12768,7 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="s">
-        <v>1055</v>
+        <v>1037</v>
       </c>
       <c r="B506" s="2" t="s">
         <v>732</v>
@@ -12924,7 +12785,7 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="s">
-        <v>1056</v>
+        <v>1038</v>
       </c>
       <c r="B507" s="2" t="s">
         <v>740</v>
@@ -12941,7 +12802,7 @@
     </row>
     <row r="508">
       <c r="A508" s="2" t="s">
-        <v>1057</v>
+        <v>1039</v>
       </c>
       <c r="B508" s="2" t="s">
         <v>748</v>
@@ -12958,7 +12819,7 @@
     </row>
     <row r="509">
       <c r="A509" s="2" t="s">
-        <v>1058</v>
+        <v>1040</v>
       </c>
       <c r="B509" s="2" t="s">
         <v>754</v>
@@ -12975,7 +12836,7 @@
     </row>
     <row r="510">
       <c r="A510" s="2" t="s">
-        <v>1059</v>
+        <v>1041</v>
       </c>
       <c r="B510" s="2" t="s">
         <v>761</v>
@@ -12992,7 +12853,7 @@
     </row>
     <row r="511">
       <c r="A511" s="2" t="s">
-        <v>1060</v>
+        <v>1042</v>
       </c>
       <c r="B511" s="2" t="s">
         <v>767</v>
@@ -13009,7 +12870,7 @@
     </row>
     <row r="512">
       <c r="A512" s="2" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="B512" s="2" t="s">
         <v>775</v>
@@ -13026,7 +12887,7 @@
     </row>
     <row r="513">
       <c r="A513" s="2" t="s">
-        <v>1062</v>
+        <v>1044</v>
       </c>
       <c r="B513" s="2" t="s">
         <v>782</v>
@@ -13043,7 +12904,7 @@
     </row>
     <row r="514">
       <c r="A514" s="2" t="s">
-        <v>1063</v>
+        <v>1045</v>
       </c>
       <c r="B514" s="2" t="s">
         <v>789</v>
@@ -13060,7 +12921,7 @@
     </row>
     <row r="515">
       <c r="A515" s="2" t="s">
-        <v>1064</v>
+        <v>1046</v>
       </c>
       <c r="B515" s="2" t="s">
         <v>795</v>
@@ -13077,7 +12938,7 @@
     </row>
     <row r="516">
       <c r="A516" s="2" t="s">
-        <v>1065</v>
+        <v>1047</v>
       </c>
       <c r="B516" s="2" t="s">
         <v>802</v>
@@ -13094,13 +12955,13 @@
     </row>
     <row r="517">
       <c r="A517" s="2" t="s">
-        <v>1066</v>
+        <v>1048</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>1067</v>
+        <v>810</v>
       </c>
       <c r="C517" s="4" t="s">
-        <v>1068</v>
+        <v>811</v>
       </c>
       <c r="D517" s="2" t="s">
         <v>3</v>
@@ -13111,7 +12972,7 @@
     </row>
     <row r="518">
       <c r="A518" s="2" t="s">
-        <v>1069</v>
+        <v>1049</v>
       </c>
       <c r="B518" s="2" t="s">
         <v>819</v>
@@ -13128,7 +12989,7 @@
     </row>
     <row r="519">
       <c r="A519" s="2" t="s">
-        <v>1070</v>
+        <v>1050</v>
       </c>
       <c r="B519" s="2" t="s">
         <v>825</v>
@@ -13145,7 +13006,7 @@
     </row>
     <row r="520">
       <c r="A520" s="2" t="s">
-        <v>1071</v>
+        <v>1051</v>
       </c>
       <c r="B520" s="2" t="s">
         <v>833</v>
@@ -13162,7 +13023,7 @@
     </row>
     <row r="521">
       <c r="A521" s="2" t="s">
-        <v>1072</v>
+        <v>1052</v>
       </c>
       <c r="B521" s="2" t="s">
         <v>841</v>
@@ -13179,7 +13040,7 @@
     </row>
     <row r="522">
       <c r="A522" s="2" t="s">
-        <v>1073</v>
+        <v>1053</v>
       </c>
       <c r="B522" s="2" t="s">
         <v>847</v>
@@ -13196,13 +13057,13 @@
     </row>
     <row r="523">
       <c r="A523" s="2" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B523" s="2" t="s">
-        <v>1075</v>
+        <v>1054</v>
+      </c>
+      <c r="B523" s="3" t="s">
+        <v>853</v>
       </c>
       <c r="C523" s="4" t="s">
-        <v>1076</v>
+        <v>1055</v>
       </c>
       <c r="D523" s="2" t="s">
         <v>3</v>
@@ -13213,7 +13074,7 @@
     </row>
     <row r="524">
       <c r="A524" s="2" t="s">
-        <v>1077</v>
+        <v>1056</v>
       </c>
       <c r="B524" s="2" t="s">
         <v>859</v>
@@ -13230,7 +13091,7 @@
     </row>
     <row r="525">
       <c r="A525" s="2" t="s">
-        <v>1078</v>
+        <v>1057</v>
       </c>
       <c r="B525" s="2" t="s">
         <v>867</v>
@@ -13247,7 +13108,7 @@
     </row>
     <row r="526">
       <c r="A526" s="2" t="s">
-        <v>1079</v>
+        <v>1058</v>
       </c>
       <c r="B526" s="2" t="s">
         <v>874</v>
@@ -13264,13 +13125,13 @@
     </row>
     <row r="527">
       <c r="A527" s="2" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B527" s="2" t="s">
-        <v>1081</v>
+        <v>1059</v>
+      </c>
+      <c r="B527" s="3" t="s">
+        <v>881</v>
       </c>
       <c r="C527" s="4" t="s">
-        <v>1082</v>
+        <v>1060</v>
       </c>
       <c r="D527" s="2" t="s">
         <v>3</v>
@@ -13281,7 +13142,7 @@
     </row>
     <row r="528">
       <c r="A528" s="2" t="s">
-        <v>1083</v>
+        <v>1061</v>
       </c>
       <c r="B528" s="2" t="s">
         <v>887</v>
@@ -13298,13 +13159,13 @@
     </row>
     <row r="529">
       <c r="A529" s="2" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B529" s="2" t="s">
-        <v>1085</v>
+        <v>1062</v>
+      </c>
+      <c r="B529" s="3" t="s">
+        <v>893</v>
       </c>
       <c r="C529" s="4" t="s">
-        <v>1086</v>
+        <v>1063</v>
       </c>
       <c r="D529" s="2" t="s">
         <v>3</v>
@@ -13315,7 +13176,7 @@
     </row>
     <row r="530">
       <c r="A530" s="2" t="s">
-        <v>1087</v>
+        <v>1064</v>
       </c>
       <c r="B530" s="2" t="s">
         <v>898</v>
@@ -13332,13 +13193,13 @@
     </row>
     <row r="531">
       <c r="A531" s="2" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B531" s="2" t="s">
-        <v>1089</v>
+        <v>1065</v>
+      </c>
+      <c r="B531" s="3" t="s">
+        <v>906</v>
       </c>
       <c r="C531" s="4" t="s">
-        <v>1090</v>
+        <v>1066</v>
       </c>
       <c r="D531" s="2" t="s">
         <v>3</v>
@@ -13349,7 +13210,7 @@
     </row>
     <row r="532">
       <c r="A532" s="2" t="s">
-        <v>1091</v>
+        <v>1067</v>
       </c>
       <c r="B532" s="2" t="s">
         <v>915</v>
@@ -13365,66 +13226,66 @@
       </c>
     </row>
     <row r="533">
-      <c r="A533" s="3" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B533" s="3" t="s">
-        <v>1093</v>
+      <c r="A533" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B533" s="2" t="s">
+        <v>1069</v>
       </c>
       <c r="C533" s="4" t="s">
-        <v>1094</v>
+        <v>1070</v>
       </c>
       <c r="E533" s="2">
         <v>533</v>
       </c>
     </row>
     <row r="534">
-      <c r="A534" s="3" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B534" s="3" t="s">
+      <c r="A534" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B534" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C534" s="4" t="s">
         <v>505</v>
-      </c>
-      <c r="C534" s="4" t="s">
-        <v>506</v>
       </c>
       <c r="E534" s="2">
         <v>534</v>
       </c>
     </row>
     <row r="535">
-      <c r="A535" s="3" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B535" s="3" t="s">
-        <v>1097</v>
+      <c r="A535" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B535" s="2" t="s">
+        <v>1073</v>
       </c>
       <c r="C535" s="4" t="s">
-        <v>1097</v>
+        <v>1073</v>
       </c>
       <c r="E535" s="2">
         <v>535</v>
       </c>
     </row>
     <row r="536">
-      <c r="A536" s="3" t="s">
-        <v>1098</v>
+      <c r="A536" s="2" t="s">
+        <v>1074</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>1099</v>
+        <v>1075</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>1100</v>
+        <v>1076</v>
       </c>
       <c r="E536" s="2">
         <v>536</v>
       </c>
     </row>
     <row r="537">
-      <c r="A537" s="3" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B537" s="3" t="s">
+      <c r="A537" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B537" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C537" s="4" t="s">
@@ -13435,98 +13296,98 @@
       </c>
     </row>
     <row r="538">
-      <c r="A538" s="3" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B538" s="3" t="s">
-        <v>1103</v>
+      <c r="A538" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B538" s="2" t="s">
+        <v>1079</v>
       </c>
       <c r="C538" s="4" t="s">
-        <v>1103</v>
+        <v>1079</v>
       </c>
       <c r="E538" s="2">
         <v>538</v>
       </c>
     </row>
     <row r="539">
-      <c r="A539" s="3" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B539" s="3" t="s">
-        <v>1105</v>
+      <c r="A539" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B539" s="2" t="s">
+        <v>1081</v>
       </c>
       <c r="C539" s="4" t="s">
-        <v>1106</v>
+        <v>1082</v>
       </c>
       <c r="E539" s="2">
         <v>539</v>
       </c>
     </row>
     <row r="540">
-      <c r="A540" s="3" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B540" s="3" t="s">
+      <c r="A540" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B540" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C540" s="4" t="s">
         <v>489</v>
-      </c>
-      <c r="C540" s="4" t="s">
-        <v>490</v>
       </c>
       <c r="E540" s="2">
         <v>540</v>
       </c>
     </row>
     <row r="541">
-      <c r="A541" s="3" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B541" s="3" t="s">
-        <v>1109</v>
+      <c r="A541" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B541" s="2" t="s">
+        <v>1085</v>
       </c>
       <c r="C541" s="4" t="s">
-        <v>1109</v>
+        <v>1085</v>
       </c>
       <c r="E541" s="2">
         <v>541</v>
       </c>
     </row>
     <row r="542">
-      <c r="A542" s="3" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B542" s="3" t="s">
-        <v>1093</v>
+      <c r="A542" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B542" s="2" t="s">
+        <v>1069</v>
       </c>
       <c r="C542" s="4" t="s">
-        <v>1094</v>
+        <v>1070</v>
       </c>
       <c r="E542" s="2">
         <v>542</v>
       </c>
     </row>
     <row r="543">
-      <c r="A543" s="3" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B543" s="3" t="s">
-        <v>1112</v>
+      <c r="A543" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B543" s="2" t="s">
+        <v>1075</v>
       </c>
       <c r="C543" s="4" t="s">
-        <v>1113</v>
+        <v>1088</v>
       </c>
       <c r="E543" s="2">
         <v>543</v>
       </c>
     </row>
     <row r="544">
-      <c r="A544" s="3" t="s">
-        <v>1114</v>
+      <c r="A544" s="2" t="s">
+        <v>1089</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>1115</v>
+        <v>1081</v>
       </c>
       <c r="C544" s="4" t="s">
-        <v>1116</v>
+        <v>1090</v>
       </c>
       <c r="E544" s="2">
         <v>544</v>
